--- a/vcf_stuff/panel_of_normals/pon_eval_colo.xlsx
+++ b/vcf_stuff/panel_of_normals/pon_eval_colo.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vsaveliev/git/umccr/vcf_stuff/vcf_stuff/panel_of_normals/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47761EAB-8563-624A-A83A-9E8FA968F696}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37940" yWindow="17200" windowWidth="32980" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="44680" yWindow="2140" windowWidth="32120" windowHeight="36020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="85">
   <si>
     <t>TP</t>
   </si>
@@ -129,12 +130,165 @@
   </si>
   <si>
     <t>INDEL</t>
+  </si>
+  <si>
+    <t>COLO829_1-ensemble-effects-n1</t>
+  </si>
+  <si>
+    <t>COLO829_1-ensemble-effects-n2</t>
+  </si>
+  <si>
+    <t>COLO829_1-ensemble-effects-n3</t>
+  </si>
+  <si>
+    <t>COLO829_1-ensemble-effects-n4</t>
+  </si>
+  <si>
+    <t>COLO829_2-ensemble-effects-n1</t>
+  </si>
+  <si>
+    <t>COLO829_2-ensemble-effects-n2</t>
+  </si>
+  <si>
+    <t>COLO829_2-ensemble-effects-n3</t>
+  </si>
+  <si>
+    <t>COLO829_2-ensemble-effects-n4</t>
+  </si>
+  <si>
+    <t>COLO829_3-ensemble-effects-n1</t>
+  </si>
+  <si>
+    <t>COLO829_3-ensemble-effects-n2</t>
+  </si>
+  <si>
+    <t>COLO829_3-ensemble-effects-n3</t>
+  </si>
+  <si>
+    <t>COLO829_3-ensemble-effects-n4</t>
+  </si>
+  <si>
+    <t>COLO829_4-ensemble-effects-n1</t>
+  </si>
+  <si>
+    <t>COLO829_4-ensemble-effects-n2</t>
+  </si>
+  <si>
+    <t>COLO829_4-ensemble-effects-n3</t>
+  </si>
+  <si>
+    <t>COLO829_4-ensemble-effects-n4</t>
+  </si>
+  <si>
+    <t>COLO829_5-ensemble-effects-n1</t>
+  </si>
+  <si>
+    <t>COLO829_5-ensemble-effects-n2</t>
+  </si>
+  <si>
+    <t>COLO829_5-ensemble-effects-n3</t>
+  </si>
+  <si>
+    <t>COLO829_5-ensemble-effects-n4</t>
+  </si>
+  <si>
+    <t>pon_new</t>
+  </si>
+  <si>
+    <t>pon_old</t>
+  </si>
+  <si>
+    <t>COLO829_100% (1 pon hit)</t>
+  </si>
+  <si>
+    <t>COLO829_100% (2 pon hit)</t>
+  </si>
+  <si>
+    <t>COLO829_100% (3 pon hit)</t>
+  </si>
+  <si>
+    <t>COLO829_100% (4 pon hit)</t>
+  </si>
+  <si>
+    <t>COLO829_100% (no filtering)</t>
+  </si>
+  <si>
+    <t>COLO829_80% (2 pon hit)</t>
+  </si>
+  <si>
+    <t>COLO829_80% (1 pon hit)</t>
+  </si>
+  <si>
+    <t>COLO829_80% (3 pon hit)</t>
+  </si>
+  <si>
+    <t>COLO829_80% (4 pon hit)</t>
+  </si>
+  <si>
+    <t>COLO829_80% (no filtering)</t>
+  </si>
+  <si>
+    <t>COLO829_60% (1 pon hit)</t>
+  </si>
+  <si>
+    <t>COLO829_60% (2 pon hit)</t>
+  </si>
+  <si>
+    <t>COLO829_60% (3 pon hit)</t>
+  </si>
+  <si>
+    <t>COLO829_60% (4 pon hit)</t>
+  </si>
+  <si>
+    <t>COLO829_60% (no filtering)</t>
+  </si>
+  <si>
+    <t>COLO829_40% (1 pon hit)</t>
+  </si>
+  <si>
+    <t>COLO829_40% (2 pon hit)</t>
+  </si>
+  <si>
+    <t>COLO829_40% (3 pon hit)</t>
+  </si>
+  <si>
+    <t>COLO829_40% (4 pon hit)</t>
+  </si>
+  <si>
+    <t>COLO829_40% (no filtering)</t>
+  </si>
+  <si>
+    <t>COLO829_20% (1 pon hit)</t>
+  </si>
+  <si>
+    <t>COLO829_20% (2 pon hit)</t>
+  </si>
+  <si>
+    <t>COLO829_20% (3 pon hit)</t>
+  </si>
+  <si>
+    <t>COLO829_20% (4 pon hit)</t>
+  </si>
+  <si>
+    <t>COLO829_20% (no filtering)</t>
+  </si>
+  <si>
+    <t>MB_300vs50-AF10 (1 pon hit)</t>
+  </si>
+  <si>
+    <t>MB_300vs50-AF10 (2 pon hit)</t>
+  </si>
+  <si>
+    <t>MB_300vs50-AF10 (3 pon hit)</t>
+  </si>
+  <si>
+    <t>MB_300vs50-AF10 (no filtering)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -168,7 +322,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -185,6 +339,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -193,7 +396,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -201,6 +404,20 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
@@ -214,6 +431,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -481,24 +701,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="X25" sqref="X25"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="125" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" customWidth="1"/>
     <col min="5" max="6" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.33203125" customWidth="1"/>
+    <col min="12" max="12" width="4.83203125" customWidth="1"/>
     <col min="13" max="14" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="17" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="23" width="7.5" customWidth="1"/>
@@ -711,10 +931,10 @@
       <c r="N4" s="3">
         <v>0.33653846153846101</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="3">
         <v>0.48427672955974799</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="3">
         <v>0.65744535519125602</v>
       </c>
       <c r="Q4" s="3">
@@ -1056,10 +1276,10 @@
       <c r="N9" s="3">
         <v>0.44244604316546698</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="2">
         <v>0.57656249999999998</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="2">
         <v>0.70473644003055702</v>
       </c>
       <c r="Q9" s="3">
@@ -2048,129 +2268,3741 @@
         <v>-12</v>
       </c>
     </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K26" t="s">
+        <v>33</v>
+      </c>
+      <c r="L26" t="s">
+        <v>33</v>
+      </c>
+      <c r="M26" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O26" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M27" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q27" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28">
+        <v>34891</v>
+      </c>
+      <c r="C28">
+        <v>3712</v>
+      </c>
+      <c r="D28">
+        <v>652</v>
+      </c>
+      <c r="E28" s="14">
+        <v>0.98165602228286797</v>
+      </c>
+      <c r="F28" s="10">
+        <v>0.90384167033650198</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.94114315000134796</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.96503941363573498</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.97327679991073601</v>
+      </c>
+      <c r="J28" s="12">
+        <v>363</v>
+      </c>
+      <c r="K28">
+        <v>262</v>
+      </c>
+      <c r="L28">
+        <v>83</v>
+      </c>
+      <c r="M28" s="14">
+        <v>0.81390134529147895</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0.58079999999999998</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0.67787114845938301</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0.75342465753424603</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0.97327679991073601</v>
+      </c>
+      <c r="S28">
+        <f t="shared" ref="S24:S53" si="2">C$3-C28</f>
+        <v>4798</v>
+      </c>
+      <c r="T28">
+        <f t="shared" ref="T24:T53" si="3">D$3-D28</f>
+        <v>-303</v>
+      </c>
+      <c r="V28">
+        <f t="shared" ref="V24:V53" si="4">K$3-K28</f>
+        <v>1003</v>
+      </c>
+      <c r="W28">
+        <f t="shared" ref="W24:W53" si="5">L$3-L28</f>
+        <v>-41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29">
+        <v>35006</v>
+      </c>
+      <c r="C29">
+        <v>3917</v>
+      </c>
+      <c r="D29">
+        <v>537</v>
+      </c>
+      <c r="E29" s="14">
+        <v>0.984891539825</v>
+      </c>
+      <c r="F29" s="10">
+        <v>0.89936541376563905</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.94018746810624898</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0.966509290703774</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.97561383461999296</v>
+      </c>
+      <c r="J29" s="12">
+        <v>369</v>
+      </c>
+      <c r="K29">
+        <v>351</v>
+      </c>
+      <c r="L29">
+        <v>77</v>
+      </c>
+      <c r="M29" s="14">
+        <v>0.82735426008968604</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0.51249999999999996</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0.63293310463121699</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0.73682108626197995</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>0.97561383461999296</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="2"/>
+        <v>4593</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="3"/>
+        <v>-188</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="4"/>
+        <v>914</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="5"/>
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30">
+        <v>35022</v>
+      </c>
+      <c r="C30">
+        <v>4008</v>
+      </c>
+      <c r="D30">
+        <v>521</v>
+      </c>
+      <c r="E30" s="14">
+        <v>0.98534169878738398</v>
+      </c>
+      <c r="F30" s="10">
+        <v>0.89730976172175203</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.93926756332720895</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.96638006203021998</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0.97576877105291704</v>
+      </c>
+      <c r="J30" s="12">
+        <v>372</v>
+      </c>
+      <c r="K30">
+        <v>425</v>
+      </c>
+      <c r="L30">
+        <v>74</v>
+      </c>
+      <c r="M30" s="14">
+        <v>0.83408071748878898</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0.466750313676286</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0.59855189058728797</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0.72065091049980601</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0.97576877105291704</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="2"/>
+        <v>4502</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="3"/>
+        <v>-172</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="4"/>
+        <v>840</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="5"/>
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31">
+        <v>35028</v>
+      </c>
+      <c r="C31">
+        <v>4073</v>
+      </c>
+      <c r="D31">
+        <v>515</v>
+      </c>
+      <c r="E31" s="14">
+        <v>0.98551050839827803</v>
+      </c>
+      <c r="F31" s="10">
+        <v>0.89583386614153004</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.93853491238411602</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.96616705190513696</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0.97574292176897204</v>
+      </c>
+      <c r="J31" s="12">
+        <v>375</v>
+      </c>
+      <c r="K31">
+        <v>480</v>
+      </c>
+      <c r="L31">
+        <v>71</v>
+      </c>
+      <c r="M31" s="14">
+        <v>0.84080717488789203</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0.43859649122806998</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0.57647963105303601</v>
+      </c>
+      <c r="P31" s="1">
+        <v>0.71049640015157201</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>0.97574292176897204</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="2"/>
+        <v>4437</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="3"/>
+        <v>-166</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="4"/>
+        <v>785</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="5"/>
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="8">
+        <v>35113</v>
+      </c>
+      <c r="C32" s="8">
+        <v>4869</v>
+      </c>
+      <c r="D32" s="8">
+        <v>430</v>
+      </c>
+      <c r="E32" s="15">
+        <v>0.98790197788594003</v>
+      </c>
+      <c r="F32" s="11">
+        <v>0.87822019908959004</v>
+      </c>
+      <c r="G32" s="9">
+        <v>0.92983780205230004</v>
+      </c>
+      <c r="H32" s="9">
+        <v>0.96382731095666296</v>
+      </c>
+      <c r="I32" s="9">
+        <v>0.97571616338167499</v>
+      </c>
+      <c r="J32" s="13">
+        <v>390</v>
+      </c>
+      <c r="K32" s="8">
+        <v>1093</v>
+      </c>
+      <c r="L32" s="8">
+        <v>56</v>
+      </c>
+      <c r="M32" s="15">
+        <v>0.87443946188340804</v>
+      </c>
+      <c r="N32" s="9">
+        <v>0.26298044504383</v>
+      </c>
+      <c r="O32" s="9">
+        <v>0.40435458786936201</v>
+      </c>
+      <c r="P32" s="9">
+        <v>0.596877869605142</v>
+      </c>
+      <c r="Q32" s="9">
+        <v>0.97571616338167499</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="2"/>
+        <v>3641</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="3"/>
+        <v>-81</v>
+      </c>
+      <c r="U32"/>
+      <c r="V32">
+        <f t="shared" si="4"/>
+        <v>172</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="5"/>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33">
+        <v>34841</v>
+      </c>
+      <c r="C33">
+        <v>3744</v>
+      </c>
+      <c r="D33">
+        <v>702</v>
+      </c>
+      <c r="E33" s="14">
+        <v>0.98024927552541996</v>
+      </c>
+      <c r="F33" s="10">
+        <v>0.90296747440715297</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.94002266350097097</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.96375244112261205</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.97193086210359503</v>
+      </c>
+      <c r="J33" s="12">
+        <v>363</v>
+      </c>
+      <c r="K33">
+        <v>244</v>
+      </c>
+      <c r="L33">
+        <v>83</v>
+      </c>
+      <c r="M33" s="14">
+        <v>0.81390134529147895</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0.59802306425041096</v>
+      </c>
+      <c r="O33" s="1">
+        <v>0.68945868945868904</v>
+      </c>
+      <c r="P33" s="1">
+        <v>0.75909661229611003</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>0.97193086210359503</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="2"/>
+        <v>4766</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="3"/>
+        <v>-353</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="4"/>
+        <v>1021</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="5"/>
+        <v>-41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34">
+        <v>34954</v>
+      </c>
+      <c r="C34">
+        <v>4020</v>
+      </c>
+      <c r="D34">
+        <v>589</v>
+      </c>
+      <c r="E34" s="14">
+        <v>0.98342852319725405</v>
+      </c>
+      <c r="F34" s="10">
+        <v>0.89685431313183095</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.93814834198907604</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0.96480187252271599</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0.97402615497365197</v>
+      </c>
+      <c r="J34" s="12">
+        <v>369</v>
+      </c>
+      <c r="K34">
+        <v>334</v>
+      </c>
+      <c r="L34">
+        <v>77</v>
+      </c>
+      <c r="M34" s="14">
+        <v>0.82735426008968604</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0.52489331436699804</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0.64229765013054796</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0.74185765983112095</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>0.97402615497365197</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="2"/>
+        <v>4490</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="3"/>
+        <v>-240</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="4"/>
+        <v>931</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="5"/>
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35">
+        <v>34970</v>
+      </c>
+      <c r="C35">
+        <v>4144</v>
+      </c>
+      <c r="D35">
+        <v>573</v>
+      </c>
+      <c r="E35" s="14">
+        <v>0.98387868215963703</v>
+      </c>
+      <c r="F35" s="10">
+        <v>0.89405328015544305</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.93681771300748695</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.96449808589742103</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.97409199417271797</v>
+      </c>
+      <c r="J35" s="12">
+        <v>371</v>
+      </c>
+      <c r="K35">
+        <v>398</v>
+      </c>
+      <c r="L35">
+        <v>75</v>
+      </c>
+      <c r="M35" s="14">
+        <v>0.83183856502242104</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0.48244473342002597</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0.61069958847736605</v>
+      </c>
+      <c r="P35" s="1">
+        <v>0.72659616137877003</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>0.97409199417271797</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="2"/>
+        <v>4366</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="3"/>
+        <v>-224</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="4"/>
+        <v>867</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="5"/>
+        <v>-33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36">
+        <v>34976</v>
+      </c>
+      <c r="C36">
+        <v>4234</v>
+      </c>
+      <c r="D36">
+        <v>567</v>
+      </c>
+      <c r="E36" s="14">
+        <v>0.98404749177053097</v>
+      </c>
+      <c r="F36" s="10">
+        <v>0.89201734251466402</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.93577515283667501</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.96415300305432705</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0.97399866888333797</v>
+      </c>
+      <c r="J36" s="12">
+        <v>374</v>
+      </c>
+      <c r="K36">
+        <v>449</v>
+      </c>
+      <c r="L36">
+        <v>72</v>
+      </c>
+      <c r="M36" s="14">
+        <v>0.83856502242152398</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0.45443499392466502</v>
+      </c>
+      <c r="O36" s="1">
+        <v>0.58944050433412098</v>
+      </c>
+      <c r="P36" s="1">
+        <v>0.71729957805907096</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>0.97399866888333797</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="2"/>
+        <v>4276</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="3"/>
+        <v>-218</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="4"/>
+        <v>816</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="5"/>
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="8">
+        <v>35060</v>
+      </c>
+      <c r="C37" s="8">
+        <v>4938</v>
+      </c>
+      <c r="D37" s="8">
+        <v>483</v>
+      </c>
+      <c r="E37" s="15">
+        <v>0.986410826323045</v>
+      </c>
+      <c r="F37" s="11">
+        <v>0.87654382719135904</v>
+      </c>
+      <c r="G37" s="9">
+        <v>0.92823764578176005</v>
+      </c>
+      <c r="H37" s="9">
+        <v>0.96228797277268396</v>
+      </c>
+      <c r="I37" s="9">
+        <v>0.974200091695958</v>
+      </c>
+      <c r="J37" s="13">
+        <v>387</v>
+      </c>
+      <c r="K37" s="8">
+        <v>982</v>
+      </c>
+      <c r="L37" s="8">
+        <v>59</v>
+      </c>
+      <c r="M37" s="15">
+        <v>0.867713004484304</v>
+      </c>
+      <c r="N37" s="9">
+        <v>0.282688093498904</v>
+      </c>
+      <c r="O37" s="9">
+        <v>0.42644628099173498</v>
+      </c>
+      <c r="P37" s="9">
+        <v>0.613701236917221</v>
+      </c>
+      <c r="Q37" s="9">
+        <v>0.974200091695958</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="2"/>
+        <v>3572</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="3"/>
+        <v>-134</v>
+      </c>
+      <c r="U37"/>
+      <c r="V37">
+        <f t="shared" si="4"/>
+        <v>283</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="5"/>
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38">
+        <v>34693</v>
+      </c>
+      <c r="C38">
+        <v>3168</v>
+      </c>
+      <c r="D38">
+        <v>850</v>
+      </c>
+      <c r="E38" s="14">
+        <v>0.97608530512337099</v>
+      </c>
+      <c r="F38" s="10">
+        <v>0.91632550645783195</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.94526183859190205</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.96351779951453298</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0.96976083723738504</v>
+      </c>
+      <c r="J38" s="12">
+        <v>359</v>
+      </c>
+      <c r="K38">
+        <v>223</v>
+      </c>
+      <c r="L38">
+        <v>87</v>
+      </c>
+      <c r="M38" s="14">
+        <v>0.80493273542600896</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0.61683848797250795</v>
+      </c>
+      <c r="O38" s="1">
+        <v>0.69844357976653704</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0.75866441251056604</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>0.96976083723738504</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="2"/>
+        <v>5342</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="3"/>
+        <v>-501</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="4"/>
+        <v>1042</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="5"/>
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39">
+        <v>34807</v>
+      </c>
+      <c r="C39">
+        <v>3322</v>
+      </c>
+      <c r="D39">
+        <v>736</v>
+      </c>
+      <c r="E39" s="14">
+        <v>0.97929268773035405</v>
+      </c>
+      <c r="F39" s="10">
+        <v>0.91287471478402205</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.94491801498534</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0.965247003621721</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0.972219118698605</v>
+      </c>
+      <c r="J39" s="12">
+        <v>365</v>
+      </c>
+      <c r="K39">
+        <v>312</v>
+      </c>
+      <c r="L39">
+        <v>81</v>
+      </c>
+      <c r="M39" s="14">
+        <v>0.81838565022421506</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0.53914327917282101</v>
+      </c>
+      <c r="O39" s="1">
+        <v>0.65004452359750597</v>
+      </c>
+      <c r="P39" s="1">
+        <v>0.74156846810239696</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>0.972219118698605</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="2"/>
+        <v>5188</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="3"/>
+        <v>-387</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="4"/>
+        <v>953</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="5"/>
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40">
+        <v>34823</v>
+      </c>
+      <c r="C40">
+        <v>3376</v>
+      </c>
+      <c r="D40">
+        <v>720</v>
+      </c>
+      <c r="E40" s="14">
+        <v>0.97974284669273803</v>
+      </c>
+      <c r="F40" s="10">
+        <v>0.91162072305557695</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.94445499172791603</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.96531593216204303</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0.972475885681093</v>
+      </c>
+      <c r="J40" s="12">
+        <v>367</v>
+      </c>
+      <c r="K40">
+        <v>361</v>
+      </c>
+      <c r="L40">
+        <v>79</v>
+      </c>
+      <c r="M40" s="14">
+        <v>0.82286995515695005</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0.504120879120879</v>
+      </c>
+      <c r="O40" s="1">
+        <v>0.62521294718909703</v>
+      </c>
+      <c r="P40" s="1">
+        <v>0.73049363057324801</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>0.972475885681093</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="2"/>
+        <v>5134</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="3"/>
+        <v>-371</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="4"/>
+        <v>904</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="5"/>
+        <v>-37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41">
+        <v>34829</v>
+      </c>
+      <c r="C41">
+        <v>3413</v>
+      </c>
+      <c r="D41">
+        <v>714</v>
+      </c>
+      <c r="E41" s="14">
+        <v>0.97991165630363197</v>
+      </c>
+      <c r="F41" s="10">
+        <v>0.91075257570210699</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.94406722233516305</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0.96525214229494305</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0.97252665938809701</v>
+      </c>
+      <c r="J41" s="12">
+        <v>370</v>
+      </c>
+      <c r="K41">
+        <v>393</v>
+      </c>
+      <c r="L41">
+        <v>76</v>
+      </c>
+      <c r="M41" s="14">
+        <v>0.82959641255605299</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0.48492791612057601</v>
+      </c>
+      <c r="O41" s="1">
+        <v>0.61207609594706303</v>
+      </c>
+      <c r="P41" s="1">
+        <v>0.72634471927758104</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>0.97252665938809701</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="2"/>
+        <v>5097</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="3"/>
+        <v>-365</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="4"/>
+        <v>872</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="5"/>
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" s="8">
+        <v>34906</v>
+      </c>
+      <c r="C42" s="8">
+        <v>3886</v>
+      </c>
+      <c r="D42" s="8">
+        <v>637</v>
+      </c>
+      <c r="E42" s="15">
+        <v>0.98207804631010298</v>
+      </c>
+      <c r="F42" s="11">
+        <v>0.89982470612497401</v>
+      </c>
+      <c r="G42" s="9">
+        <v>0.93915383063159996</v>
+      </c>
+      <c r="H42" s="9">
+        <v>0.96444596715368802</v>
+      </c>
+      <c r="I42" s="9">
+        <v>0.97318214894097499</v>
+      </c>
+      <c r="J42" s="13">
+        <v>382</v>
+      </c>
+      <c r="K42" s="8">
+        <v>852</v>
+      </c>
+      <c r="L42" s="8">
+        <v>64</v>
+      </c>
+      <c r="M42" s="15">
+        <v>0.85650224215246595</v>
+      </c>
+      <c r="N42" s="9">
+        <v>0.30956239870340302</v>
+      </c>
+      <c r="O42" s="9">
+        <v>0.45476190476190398</v>
+      </c>
+      <c r="P42" s="9">
+        <v>0.63286944996686501</v>
+      </c>
+      <c r="Q42" s="9">
+        <v>0.97318214894097499</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="2"/>
+        <v>4624</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="3"/>
+        <v>-288</v>
+      </c>
+      <c r="U42"/>
+      <c r="V42">
+        <f t="shared" si="4"/>
+        <v>413</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="5"/>
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43">
+        <v>33310</v>
+      </c>
+      <c r="C43">
+        <v>2521</v>
+      </c>
+      <c r="D43">
+        <v>2233</v>
+      </c>
+      <c r="E43" s="14">
+        <v>0.93717468981233998</v>
+      </c>
+      <c r="F43" s="10">
+        <v>0.92964193017219698</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.93339311233782596</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.935658387779981</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0.93641592497427695</v>
+      </c>
+      <c r="J43" s="12">
+        <v>323</v>
+      </c>
+      <c r="K43">
+        <v>174</v>
+      </c>
+      <c r="L43">
+        <v>123</v>
+      </c>
+      <c r="M43" s="14">
+        <v>0.72421524663677095</v>
+      </c>
+      <c r="N43" s="1">
+        <v>0.64989939637826899</v>
+      </c>
+      <c r="O43" s="1">
+        <v>0.68504772004241699</v>
+      </c>
+      <c r="P43" s="1">
+        <v>0.70802279701885096</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>0.93641592497427695</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="2"/>
+        <v>5989</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="3"/>
+        <v>-1884</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="4"/>
+        <v>1091</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="5"/>
+        <v>-81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44">
+        <v>33419</v>
+      </c>
+      <c r="C44">
+        <v>2639</v>
+      </c>
+      <c r="D44">
+        <v>2124</v>
+      </c>
+      <c r="E44" s="14">
+        <v>0.94024139774357796</v>
+      </c>
+      <c r="F44" s="10">
+        <v>0.92681235786787897</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.93347858270135797</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0.93752454693373699</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0.93888100689713205</v>
+      </c>
+      <c r="J44" s="12">
+        <v>328</v>
+      </c>
+      <c r="K44">
+        <v>233</v>
+      </c>
+      <c r="L44">
+        <v>118</v>
+      </c>
+      <c r="M44" s="14">
+        <v>0.73542600896860899</v>
+      </c>
+      <c r="N44" s="1">
+        <v>0.58467023172905497</v>
+      </c>
+      <c r="O44" s="1">
+        <v>0.651439920556107</v>
+      </c>
+      <c r="P44" s="1">
+        <v>0.69936034115138601</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>0.93888100689713205</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="2"/>
+        <v>5871</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="3"/>
+        <v>-1775</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="4"/>
+        <v>1032</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="5"/>
+        <v>-76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45">
+        <v>33434</v>
+      </c>
+      <c r="C45">
+        <v>2678</v>
+      </c>
+      <c r="D45">
+        <v>2109</v>
+      </c>
+      <c r="E45" s="14">
+        <v>0.94066342177081197</v>
+      </c>
+      <c r="F45" s="10">
+        <v>0.92584182543198901</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.93319377573093198</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0.93766125956339297</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0.93915994146050896</v>
+      </c>
+      <c r="J45" s="12">
+        <v>330</v>
+      </c>
+      <c r="K45">
+        <v>275</v>
+      </c>
+      <c r="L45">
+        <v>116</v>
+      </c>
+      <c r="M45" s="14">
+        <v>0.73991031390134498</v>
+      </c>
+      <c r="N45" s="1">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="O45" s="1">
+        <v>0.62797335870599402</v>
+      </c>
+      <c r="P45" s="1">
+        <v>0.69066555043951405</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>0.93915994146050896</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="2"/>
+        <v>5832</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="3"/>
+        <v>-1760</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="4"/>
+        <v>990</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="5"/>
+        <v>-74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46">
+        <v>33440</v>
+      </c>
+      <c r="C46">
+        <v>2699</v>
+      </c>
+      <c r="D46">
+        <v>2103</v>
+      </c>
+      <c r="E46" s="14">
+        <v>0.94083223138170602</v>
+      </c>
+      <c r="F46" s="10">
+        <v>0.92531614045767696</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0.93300968164950704</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0.937687523484249</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0.93925724525736798</v>
+      </c>
+      <c r="J46" s="12">
+        <v>333</v>
+      </c>
+      <c r="K46">
+        <v>303</v>
+      </c>
+      <c r="L46">
+        <v>113</v>
+      </c>
+      <c r="M46" s="14">
+        <v>0.74663677130044803</v>
+      </c>
+      <c r="N46" s="1">
+        <v>0.52358490566037696</v>
+      </c>
+      <c r="O46" s="1">
+        <v>0.61552680221811396</v>
+      </c>
+      <c r="P46" s="1">
+        <v>0.68801652892561904</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>0.93925724525736798</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="2"/>
+        <v>5811</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="3"/>
+        <v>-1754</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="4"/>
+        <v>962</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="5"/>
+        <v>-71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" s="8">
+        <v>33515</v>
+      </c>
+      <c r="C47" s="8">
+        <v>3032</v>
+      </c>
+      <c r="D47" s="8">
+        <v>2028</v>
+      </c>
+      <c r="E47" s="15">
+        <v>0.94294235151787897</v>
+      </c>
+      <c r="F47" s="11">
+        <v>0.91703833419979697</v>
+      </c>
+      <c r="G47" s="9">
+        <v>0.92980995977250602</v>
+      </c>
+      <c r="H47" s="9">
+        <v>0.937645130064514</v>
+      </c>
+      <c r="I47" s="9">
+        <v>0.94028628020895799</v>
+      </c>
+      <c r="J47" s="13">
+        <v>344</v>
+      </c>
+      <c r="K47" s="8">
+        <v>667</v>
+      </c>
+      <c r="L47" s="8">
+        <v>102</v>
+      </c>
+      <c r="M47" s="15">
+        <v>0.77130044843049295</v>
+      </c>
+      <c r="N47" s="9">
+        <v>0.34025717111770498</v>
+      </c>
+      <c r="O47" s="9">
+        <v>0.47220315717227102</v>
+      </c>
+      <c r="P47" s="9">
+        <v>0.61538461538461497</v>
+      </c>
+      <c r="Q47" s="9">
+        <v>0.94028628020895799</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="2"/>
+        <v>5478</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="3"/>
+        <v>-1679</v>
+      </c>
+      <c r="U47"/>
+      <c r="V47">
+        <f t="shared" si="4"/>
+        <v>598</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="5"/>
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48">
+        <v>22442</v>
+      </c>
+      <c r="C48">
+        <v>1048</v>
+      </c>
+      <c r="D48">
+        <v>13101</v>
+      </c>
+      <c r="E48" s="14">
+        <v>0.631404214613285</v>
+      </c>
+      <c r="F48" s="10">
+        <v>0.95538527032779896</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0.760320498704114</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0.67734302374714705</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0.65356736182097197</v>
+      </c>
+      <c r="J48" s="12">
+        <v>190</v>
+      </c>
+      <c r="K48">
+        <v>105</v>
+      </c>
+      <c r="L48">
+        <v>256</v>
+      </c>
+      <c r="M48" s="14">
+        <v>0.42600896860986498</v>
+      </c>
+      <c r="N48" s="1">
+        <v>0.644067796610169</v>
+      </c>
+      <c r="O48" s="1">
+        <v>0.512820512820512</v>
+      </c>
+      <c r="P48" s="1">
+        <v>0.456950456950457</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>0.65356736182097197</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="2"/>
+        <v>7462</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="3"/>
+        <v>-12752</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="4"/>
+        <v>1160</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="5"/>
+        <v>-214</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49">
+        <v>22515</v>
+      </c>
+      <c r="C49">
+        <v>1133</v>
+      </c>
+      <c r="D49">
+        <v>13028</v>
+      </c>
+      <c r="E49" s="14">
+        <v>0.63345806487916001</v>
+      </c>
+      <c r="F49" s="10">
+        <v>0.95208897158322003</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0.76075754760014103</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0.67889880593414498</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0.65539173592210398</v>
+      </c>
+      <c r="J49" s="12">
+        <v>191</v>
+      </c>
+      <c r="K49">
+        <v>158</v>
+      </c>
+      <c r="L49">
+        <v>255</v>
+      </c>
+      <c r="M49" s="14">
+        <v>0.42825112107623298</v>
+      </c>
+      <c r="N49" s="1">
+        <v>0.54727793696274996</v>
+      </c>
+      <c r="O49" s="1">
+        <v>0.480503144654088</v>
+      </c>
+      <c r="P49" s="1">
+        <v>0.44772620721987799</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>0.65539173592210398</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="2"/>
+        <v>7377</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="3"/>
+        <v>-12679</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="4"/>
+        <v>1107</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="5"/>
+        <v>-213</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50">
+        <v>22525</v>
+      </c>
+      <c r="C50">
+        <v>1156</v>
+      </c>
+      <c r="D50">
+        <v>13018</v>
+      </c>
+      <c r="E50" s="14">
+        <v>0.63373941423065006</v>
+      </c>
+      <c r="F50" s="10">
+        <v>0.95118449389806103</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0.76067134945292403</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0.67906519628827899</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0.65561984818143704</v>
+      </c>
+      <c r="J50" s="12">
+        <v>191</v>
+      </c>
+      <c r="K50">
+        <v>182</v>
+      </c>
+      <c r="L50">
+        <v>255</v>
+      </c>
+      <c r="M50" s="14">
+        <v>0.42825112107623298</v>
+      </c>
+      <c r="N50" s="1">
+        <v>0.51206434316353799</v>
+      </c>
+      <c r="O50" s="1">
+        <v>0.46642246642246599</v>
+      </c>
+      <c r="P50" s="1">
+        <v>0.44274455261937801</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>0.65561984818143704</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="2"/>
+        <v>7354</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="3"/>
+        <v>-12669</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="4"/>
+        <v>1083</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="5"/>
+        <v>-213</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51">
+        <v>22528</v>
+      </c>
+      <c r="C51">
+        <v>1171</v>
+      </c>
+      <c r="D51">
+        <v>13015</v>
+      </c>
+      <c r="E51" s="14">
+        <v>0.63382381903609697</v>
+      </c>
+      <c r="F51" s="10">
+        <v>0.95058863243174796</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0.76054150771412099</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0.67908193716804</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0.65567281553963197</v>
+      </c>
+      <c r="J51" s="12">
+        <v>192</v>
+      </c>
+      <c r="K51">
+        <v>210</v>
+      </c>
+      <c r="L51">
+        <v>254</v>
+      </c>
+      <c r="M51" s="14">
+        <v>0.43049327354259997</v>
+      </c>
+      <c r="N51" s="1">
+        <v>0.47761194029850701</v>
+      </c>
+      <c r="O51" s="1">
+        <v>0.45283018867924502</v>
+      </c>
+      <c r="P51" s="1">
+        <v>0.43915827996340301</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>0.65567281553963197</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="2"/>
+        <v>7339</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="3"/>
+        <v>-12666</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="4"/>
+        <v>1055</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="5"/>
+        <v>-212</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52" s="8">
+        <v>22572</v>
+      </c>
+      <c r="C52" s="8">
+        <v>1422</v>
+      </c>
+      <c r="D52" s="8">
+        <v>12971</v>
+      </c>
+      <c r="E52" s="15">
+        <v>0.63506175618265204</v>
+      </c>
+      <c r="F52" s="11">
+        <v>0.940735183795949</v>
+      </c>
+      <c r="G52" s="9">
+        <v>0.75825117154038602</v>
+      </c>
+      <c r="H52" s="9">
+        <v>0.67920031775453404</v>
+      </c>
+      <c r="I52" s="9">
+        <v>0.65638985579313702</v>
+      </c>
+      <c r="J52" s="13">
+        <v>200</v>
+      </c>
+      <c r="K52" s="8">
+        <v>483</v>
+      </c>
+      <c r="L52" s="8">
+        <v>246</v>
+      </c>
+      <c r="M52" s="15">
+        <v>0.44843049327354201</v>
+      </c>
+      <c r="N52" s="9">
+        <v>0.29282576866764198</v>
+      </c>
+      <c r="O52" s="9">
+        <v>0.35429583702391498</v>
+      </c>
+      <c r="P52" s="9">
+        <v>0.40535062829347301</v>
+      </c>
+      <c r="Q52" s="9">
+        <v>0.65638985579313702</v>
+      </c>
+      <c r="S52" s="8">
+        <f t="shared" si="2"/>
+        <v>7088</v>
+      </c>
+      <c r="T52" s="8">
+        <f t="shared" si="3"/>
+        <v>-12622</v>
+      </c>
+      <c r="V52" s="8">
+        <f t="shared" si="4"/>
+        <v>782</v>
+      </c>
+      <c r="W52" s="8">
+        <f t="shared" si="5"/>
+        <v>-204</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="S53">
+        <f t="shared" si="2"/>
+        <v>8510</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="3"/>
+        <v>349</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="4"/>
+        <v>1265</v>
+      </c>
+      <c r="W53">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A54" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>32</v>
+      </c>
+      <c r="C54" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J54" t="s">
+        <v>33</v>
+      </c>
+      <c r="K54" t="s">
+        <v>33</v>
+      </c>
+      <c r="L54" t="s">
+        <v>33</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J55" t="s">
+        <v>0</v>
+      </c>
+      <c r="K55" t="s">
+        <v>1</v>
+      </c>
+      <c r="L55" t="s">
+        <v>2</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56">
+        <v>35002</v>
+      </c>
+      <c r="C56">
+        <v>4098</v>
+      </c>
+      <c r="D56">
+        <v>541</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0.984779000084404</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0.89519181585677698</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0.93785083664911595</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0.96545522750342005</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0.97502137960427504</v>
+      </c>
+      <c r="J56">
+        <v>373</v>
+      </c>
+      <c r="K56">
+        <v>478</v>
+      </c>
+      <c r="L56">
+        <v>73</v>
+      </c>
+      <c r="M56" s="1">
+        <v>0.83632286995515603</v>
+      </c>
+      <c r="N56" s="1">
+        <v>0.43830787309048103</v>
+      </c>
+      <c r="O56" s="1">
+        <v>0.57517347725520396</v>
+      </c>
+      <c r="P56" s="1">
+        <v>0.70777988614800702</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>0.97502137960427504</v>
+      </c>
+      <c r="S56">
+        <f t="shared" ref="S54:S75" si="6">C$3-C56</f>
+        <v>4412</v>
+      </c>
+      <c r="T56">
+        <f t="shared" ref="T54:T75" si="7">D$3-D56</f>
+        <v>-192</v>
+      </c>
+      <c r="V56">
+        <f t="shared" ref="V54:V75" si="8">K$3-K56</f>
+        <v>787</v>
+      </c>
+      <c r="W56">
+        <f t="shared" ref="W54:W75" si="9">L$3-L56</f>
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57">
+        <v>35040</v>
+      </c>
+      <c r="C57">
+        <v>4268</v>
+      </c>
+      <c r="D57">
+        <v>503</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0.98584812762006502</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0.89142159356873896</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0.93626003660605694</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0.96539563588274102</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0.97551469257645496</v>
+      </c>
+      <c r="J57">
+        <v>379</v>
+      </c>
+      <c r="K57">
+        <v>618</v>
+      </c>
+      <c r="L57">
+        <v>67</v>
+      </c>
+      <c r="M57" s="1">
+        <v>0.84977578475336302</v>
+      </c>
+      <c r="N57" s="1">
+        <v>0.380140421263791</v>
+      </c>
+      <c r="O57" s="1">
+        <v>0.52529452529452503</v>
+      </c>
+      <c r="P57" s="1">
+        <v>0.68140956490471005</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>0.97551469257645496</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="6"/>
+        <v>4242</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="7"/>
+        <v>-154</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="8"/>
+        <v>647</v>
+      </c>
+      <c r="W57">
+        <f t="shared" si="9"/>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58">
+        <v>35055</v>
+      </c>
+      <c r="C58">
+        <v>4345</v>
+      </c>
+      <c r="D58">
+        <v>488</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0.98627015164730003</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0.88972081218274102</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0.93551098835114599</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0.96531954266076203</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0.97568239318427896</v>
+      </c>
+      <c r="J58">
+        <v>379</v>
+      </c>
+      <c r="K58">
+        <v>693</v>
+      </c>
+      <c r="L58">
+        <v>67</v>
+      </c>
+      <c r="M58" s="1">
+        <v>0.84977578475336302</v>
+      </c>
+      <c r="N58" s="1">
+        <v>0.35354477611940299</v>
+      </c>
+      <c r="O58" s="1">
+        <v>0.499341238471673</v>
+      </c>
+      <c r="P58" s="1">
+        <v>0.66351540616246496</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>0.97568239318427896</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="6"/>
+        <v>4165</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="7"/>
+        <v>-139</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="8"/>
+        <v>572</v>
+      </c>
+      <c r="W58">
+        <f t="shared" si="9"/>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B59" s="8">
+        <v>35059</v>
+      </c>
+      <c r="C59" s="8">
+        <v>4402</v>
+      </c>
+      <c r="D59" s="8">
+        <v>484</v>
+      </c>
+      <c r="E59" s="9">
+        <v>0.98638269138789603</v>
+      </c>
+      <c r="F59" s="9">
+        <v>0.88844682091178595</v>
+      </c>
+      <c r="G59" s="9">
+        <v>0.93485680763692502</v>
+      </c>
+      <c r="H59" s="9">
+        <v>0.96510545991091901</v>
+      </c>
+      <c r="I59" s="9">
+        <v>0.97562808197067996</v>
+      </c>
+      <c r="J59" s="8">
+        <v>382</v>
+      </c>
+      <c r="K59" s="8">
+        <v>734</v>
+      </c>
+      <c r="L59" s="8">
+        <v>64</v>
+      </c>
+      <c r="M59" s="9">
+        <v>0.85650224215246595</v>
+      </c>
+      <c r="N59" s="9">
+        <v>0.34229390681003502</v>
+      </c>
+      <c r="O59" s="9">
+        <v>0.48911651728553102</v>
+      </c>
+      <c r="P59" s="9">
+        <v>0.65862068965517195</v>
+      </c>
+      <c r="Q59" s="9">
+        <v>0.97562808197067996</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="6"/>
+        <v>4108</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="7"/>
+        <v>-135</v>
+      </c>
+      <c r="U59"/>
+      <c r="V59">
+        <f t="shared" si="8"/>
+        <v>531</v>
+      </c>
+      <c r="W59">
+        <f t="shared" si="9"/>
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60">
+        <v>34950</v>
+      </c>
+      <c r="C60">
+        <v>4333</v>
+      </c>
+      <c r="D60">
+        <v>593</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0.98331598345665805</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0.88969783366850796</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0.93416726806190298</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0.96304868975779101</v>
+      </c>
+      <c r="I60" s="1">
+        <v>0.97307681599242701</v>
+      </c>
+      <c r="J60">
+        <v>372</v>
+      </c>
+      <c r="K60">
+        <v>463</v>
+      </c>
+      <c r="L60">
+        <v>74</v>
+      </c>
+      <c r="M60" s="1">
+        <v>0.83408071748878898</v>
+      </c>
+      <c r="N60" s="1">
+        <v>0.44550898203592798</v>
+      </c>
+      <c r="O60" s="1">
+        <v>0.5807962529274</v>
+      </c>
+      <c r="P60" s="1">
+        <v>0.71019473081328699</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>0.97307681599242701</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="6"/>
+        <v>4177</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="7"/>
+        <v>-244</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="8"/>
+        <v>802</v>
+      </c>
+      <c r="W60">
+        <f t="shared" si="9"/>
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61">
+        <v>34989</v>
+      </c>
+      <c r="C61">
+        <v>4507</v>
+      </c>
+      <c r="D61">
+        <v>554</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0.98441324592746804</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0.88588717844845</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0.93255507136289095</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0.96299293216196502</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0.97358528366672803</v>
+      </c>
+      <c r="J61">
+        <v>377</v>
+      </c>
+      <c r="K61">
+        <v>612</v>
+      </c>
+      <c r="L61">
+        <v>69</v>
+      </c>
+      <c r="M61" s="1">
+        <v>0.84529147982062702</v>
+      </c>
+      <c r="N61" s="1">
+        <v>0.38119312436804798</v>
+      </c>
+      <c r="O61" s="1">
+        <v>0.52543554006968596</v>
+      </c>
+      <c r="P61" s="1">
+        <v>0.67976920302920996</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>0.97358528366672803</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="6"/>
+        <v>4003</v>
+      </c>
+      <c r="T61">
+        <f t="shared" si="7"/>
+        <v>-205</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="8"/>
+        <v>653</v>
+      </c>
+      <c r="W61">
+        <f t="shared" si="9"/>
+        <v>-27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>40</v>
+      </c>
+      <c r="B62">
+        <v>35004</v>
+      </c>
+      <c r="C62">
+        <v>4566</v>
+      </c>
+      <c r="D62">
+        <v>539</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0.98483526995470205</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0.88460955269143204</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0.93203573282920305</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0.96301350265761299</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0.97380215157863104</v>
+      </c>
+      <c r="J62">
+        <v>377</v>
+      </c>
+      <c r="K62">
+        <v>662</v>
+      </c>
+      <c r="L62">
+        <v>69</v>
+      </c>
+      <c r="M62" s="1">
+        <v>0.84529147982062702</v>
+      </c>
+      <c r="N62" s="1">
+        <v>0.36284889316650598</v>
+      </c>
+      <c r="O62" s="1">
+        <v>0.50774410774410705</v>
+      </c>
+      <c r="P62" s="1">
+        <v>0.66772936592277699</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>0.97380215157863104</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="6"/>
+        <v>3944</v>
+      </c>
+      <c r="T62">
+        <f t="shared" si="7"/>
+        <v>-190</v>
+      </c>
+      <c r="V62">
+        <f t="shared" si="8"/>
+        <v>603</v>
+      </c>
+      <c r="W62">
+        <f t="shared" si="9"/>
+        <v>-27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B63" s="8">
+        <v>35007</v>
+      </c>
+      <c r="C63" s="8">
+        <v>4611</v>
+      </c>
+      <c r="D63" s="8">
+        <v>536</v>
+      </c>
+      <c r="E63" s="9">
+        <v>0.98491967476014897</v>
+      </c>
+      <c r="F63" s="9">
+        <v>0.88361350901105495</v>
+      </c>
+      <c r="G63" s="9">
+        <v>0.93152033634464604</v>
+      </c>
+      <c r="H63" s="9">
+        <v>0.962841740469772</v>
+      </c>
+      <c r="I63" s="9">
+        <v>0.97375558058997702</v>
+      </c>
+      <c r="J63" s="8">
+        <v>380</v>
+      </c>
+      <c r="K63" s="8">
+        <v>697</v>
+      </c>
+      <c r="L63" s="8">
+        <v>66</v>
+      </c>
+      <c r="M63" s="9">
+        <v>0.85201793721973096</v>
+      </c>
+      <c r="N63" s="9">
+        <v>0.35283194057567302</v>
+      </c>
+      <c r="O63" s="9">
+        <v>0.49901510177281599</v>
+      </c>
+      <c r="P63" s="9">
+        <v>0.66410346032855605</v>
+      </c>
+      <c r="Q63" s="9">
+        <v>0.97375558058997702</v>
+      </c>
+      <c r="S63">
+        <f t="shared" si="6"/>
+        <v>3899</v>
+      </c>
+      <c r="T63">
+        <f t="shared" si="7"/>
+        <v>-187</v>
+      </c>
+      <c r="U63"/>
+      <c r="V63">
+        <f t="shared" si="8"/>
+        <v>568</v>
+      </c>
+      <c r="W63">
+        <f t="shared" si="9"/>
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>42</v>
+      </c>
+      <c r="B64">
+        <v>34803</v>
+      </c>
+      <c r="C64">
+        <v>3392</v>
+      </c>
+      <c r="D64">
+        <v>740</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0.97918014798975805</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0.91119256447178898</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0.94396376359543199</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0.96478291483475298</v>
+      </c>
+      <c r="I64" s="1">
+        <v>0.97192821755910597</v>
+      </c>
+      <c r="J64">
+        <v>369</v>
+      </c>
+      <c r="K64">
+        <v>392</v>
+      </c>
+      <c r="L64">
+        <v>77</v>
+      </c>
+      <c r="M64" s="1">
+        <v>0.82735426008968604</v>
+      </c>
+      <c r="N64" s="1">
+        <v>0.484888304862023</v>
+      </c>
+      <c r="O64" s="1">
+        <v>0.611433305716652</v>
+      </c>
+      <c r="P64" s="1">
+        <v>0.72495088408644304</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>0.97192821755910597</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="6"/>
+        <v>5118</v>
+      </c>
+      <c r="T64">
+        <f t="shared" si="7"/>
+        <v>-391</v>
+      </c>
+      <c r="V64">
+        <f t="shared" si="8"/>
+        <v>873</v>
+      </c>
+      <c r="W64">
+        <f t="shared" si="9"/>
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>43</v>
+      </c>
+      <c r="B65">
+        <v>34842</v>
+      </c>
+      <c r="C65">
+        <v>3506</v>
+      </c>
+      <c r="D65">
+        <v>701</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0.98027741046056804</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0.90857411077500705</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0.94306478461517596</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0.96504542432971396</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0.97260178374530604</v>
+      </c>
+      <c r="J65">
+        <v>374</v>
+      </c>
+      <c r="K65">
+        <v>510</v>
+      </c>
+      <c r="L65">
+        <v>72</v>
+      </c>
+      <c r="M65" s="1">
+        <v>0.83856502242152398</v>
+      </c>
+      <c r="N65" s="1">
+        <v>0.42307692307692302</v>
+      </c>
+      <c r="O65" s="1">
+        <v>0.56240601503759302</v>
+      </c>
+      <c r="P65" s="1">
+        <v>0.70089955022488704</v>
+      </c>
+      <c r="Q65" s="1">
+        <v>0.97260178374530604</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="6"/>
+        <v>5004</v>
+      </c>
+      <c r="T65">
+        <f t="shared" si="7"/>
+        <v>-352</v>
+      </c>
+      <c r="V65">
+        <f t="shared" si="8"/>
+        <v>755</v>
+      </c>
+      <c r="W65">
+        <f t="shared" si="9"/>
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>44</v>
+      </c>
+      <c r="B66">
+        <v>34857</v>
+      </c>
+      <c r="C66">
+        <v>3548</v>
+      </c>
+      <c r="D66">
+        <v>686</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0.98069943448780295</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0.90761619580783703</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0.94274354952128503</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0.965156138378641</v>
+      </c>
+      <c r="I66" s="1">
+        <v>0.97286570730019095</v>
+      </c>
+      <c r="J66">
+        <v>374</v>
+      </c>
+      <c r="K66">
+        <v>568</v>
+      </c>
+      <c r="L66">
+        <v>72</v>
+      </c>
+      <c r="M66" s="1">
+        <v>0.83856502242152398</v>
+      </c>
+      <c r="N66" s="1">
+        <v>0.39702760084925598</v>
+      </c>
+      <c r="O66" s="1">
+        <v>0.53890489913544604</v>
+      </c>
+      <c r="P66" s="1">
+        <v>0.68598679383712402</v>
+      </c>
+      <c r="Q66" s="1">
+        <v>0.97286570730019095</v>
+      </c>
+      <c r="S66">
+        <f t="shared" si="6"/>
+        <v>4962</v>
+      </c>
+      <c r="T66">
+        <f t="shared" si="7"/>
+        <v>-337</v>
+      </c>
+      <c r="V66">
+        <f t="shared" si="8"/>
+        <v>697</v>
+      </c>
+      <c r="W66">
+        <f t="shared" si="9"/>
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B67" s="8">
+        <v>34860</v>
+      </c>
+      <c r="C67" s="8">
+        <v>3587</v>
+      </c>
+      <c r="D67" s="8">
+        <v>683</v>
+      </c>
+      <c r="E67" s="9">
+        <v>0.98078383929324997</v>
+      </c>
+      <c r="F67" s="9">
+        <v>0.906702733633313</v>
+      </c>
+      <c r="G67" s="9">
+        <v>0.94228949858088895</v>
+      </c>
+      <c r="H67" s="9">
+        <v>0.96501475481538501</v>
+      </c>
+      <c r="I67" s="9">
+        <v>0.97283539937600105</v>
+      </c>
+      <c r="J67" s="8">
+        <v>376</v>
+      </c>
+      <c r="K67" s="8">
+        <v>609</v>
+      </c>
+      <c r="L67" s="8">
+        <v>70</v>
+      </c>
+      <c r="M67" s="9">
+        <v>0.84304932735425997</v>
+      </c>
+      <c r="N67" s="9">
+        <v>0.38172588832487298</v>
+      </c>
+      <c r="O67" s="9">
+        <v>0.52550663871418501</v>
+      </c>
+      <c r="P67" s="9">
+        <v>0.67894546767786201</v>
+      </c>
+      <c r="Q67" s="9">
+        <v>0.97283539937600105</v>
+      </c>
+      <c r="S67">
+        <f t="shared" si="6"/>
+        <v>4923</v>
+      </c>
+      <c r="T67">
+        <f t="shared" si="7"/>
+        <v>-334</v>
+      </c>
+      <c r="U67"/>
+      <c r="V67">
+        <f t="shared" si="8"/>
+        <v>656</v>
+      </c>
+      <c r="W67">
+        <f t="shared" si="9"/>
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>46</v>
+      </c>
+      <c r="B68">
+        <v>33415</v>
+      </c>
+      <c r="C68">
+        <v>2678</v>
+      </c>
+      <c r="D68">
+        <v>2128</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0.94012885800298196</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0.92580278724406395</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0.93291082695851202</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0.93722828373488898</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0.93867633013090601</v>
+      </c>
+      <c r="J68">
+        <v>331</v>
+      </c>
+      <c r="K68">
+        <v>301</v>
+      </c>
+      <c r="L68">
+        <v>115</v>
+      </c>
+      <c r="M68" s="1">
+        <v>0.74215246636771304</v>
+      </c>
+      <c r="N68" s="1">
+        <v>0.523734177215189</v>
+      </c>
+      <c r="O68" s="1">
+        <v>0.614100185528756</v>
+      </c>
+      <c r="P68" s="1">
+        <v>0.68501655629139002</v>
+      </c>
+      <c r="Q68" s="1">
+        <v>0.93867633013090601</v>
+      </c>
+      <c r="S68">
+        <f t="shared" si="6"/>
+        <v>5832</v>
+      </c>
+      <c r="T68">
+        <f t="shared" si="7"/>
+        <v>-1779</v>
+      </c>
+      <c r="V68">
+        <f t="shared" si="8"/>
+        <v>964</v>
+      </c>
+      <c r="W68">
+        <f t="shared" si="9"/>
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>47</v>
+      </c>
+      <c r="B69">
+        <v>33453</v>
+      </c>
+      <c r="C69">
+        <v>2754</v>
+      </c>
+      <c r="D69">
+        <v>2090</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0.94119798553864298</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0.92393736017896999</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0.93248780487804805</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0.93769445954960995</v>
+      </c>
+      <c r="I69" s="1">
+        <v>0.93944295607339601</v>
+      </c>
+      <c r="J69">
+        <v>336</v>
+      </c>
+      <c r="K69">
+        <v>415</v>
+      </c>
+      <c r="L69">
+        <v>110</v>
+      </c>
+      <c r="M69" s="1">
+        <v>0.75336322869955097</v>
+      </c>
+      <c r="N69" s="1">
+        <v>0.447403462050599</v>
+      </c>
+      <c r="O69" s="1">
+        <v>0.56140350877192902</v>
+      </c>
+      <c r="P69" s="1">
+        <v>0.66272189349112398</v>
+      </c>
+      <c r="Q69" s="1">
+        <v>0.93944295607339601</v>
+      </c>
+      <c r="S69">
+        <f t="shared" si="6"/>
+        <v>5756</v>
+      </c>
+      <c r="T69">
+        <f t="shared" si="7"/>
+        <v>-1741</v>
+      </c>
+      <c r="V69">
+        <f t="shared" si="8"/>
+        <v>850</v>
+      </c>
+      <c r="W69">
+        <f t="shared" si="9"/>
+        <v>-68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>48</v>
+      </c>
+      <c r="B70">
+        <v>33468</v>
+      </c>
+      <c r="C70">
+        <v>2791</v>
+      </c>
+      <c r="D70">
+        <v>2075</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0.94162000956587799</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0.92302600733610896</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0.93223029999164297</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0.93784151857020304</v>
+      </c>
+      <c r="I70" s="1">
+        <v>0.93972696590724003</v>
+      </c>
+      <c r="J70">
+        <v>336</v>
+      </c>
+      <c r="K70">
+        <v>459</v>
+      </c>
+      <c r="L70">
+        <v>110</v>
+      </c>
+      <c r="M70" s="1">
+        <v>0.75336322869955097</v>
+      </c>
+      <c r="N70" s="1">
+        <v>0.422641509433962</v>
+      </c>
+      <c r="O70" s="1">
+        <v>0.54149879129734002</v>
+      </c>
+      <c r="P70" s="1">
+        <v>0.65141527723923998</v>
+      </c>
+      <c r="Q70" s="1">
+        <v>0.93972696590724003</v>
+      </c>
+      <c r="S70">
+        <f t="shared" si="6"/>
+        <v>5719</v>
+      </c>
+      <c r="T70">
+        <f t="shared" si="7"/>
+        <v>-1726</v>
+      </c>
+      <c r="V70">
+        <f t="shared" si="8"/>
+        <v>806</v>
+      </c>
+      <c r="W70">
+        <f t="shared" si="9"/>
+        <v>-68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B71" s="8">
+        <v>33471</v>
+      </c>
+      <c r="C71" s="8">
+        <v>2816</v>
+      </c>
+      <c r="D71" s="8">
+        <v>2072</v>
+      </c>
+      <c r="E71" s="9">
+        <v>0.94170441437132402</v>
+      </c>
+      <c r="F71" s="9">
+        <v>0.92239645051946895</v>
+      </c>
+      <c r="G71" s="9">
+        <v>0.93195043853543102</v>
+      </c>
+      <c r="H71" s="9">
+        <v>0.93777842529656597</v>
+      </c>
+      <c r="I71" s="9">
+        <v>0.93973731940006799</v>
+      </c>
+      <c r="J71" s="8">
+        <v>338</v>
+      </c>
+      <c r="K71" s="8">
+        <v>487</v>
+      </c>
+      <c r="L71" s="8">
+        <v>108</v>
+      </c>
+      <c r="M71" s="9">
+        <v>0.75784753363228696</v>
+      </c>
+      <c r="N71" s="9">
+        <v>0.409696969696969</v>
+      </c>
+      <c r="O71" s="9">
+        <v>0.53186467348544397</v>
+      </c>
+      <c r="P71" s="9">
+        <v>0.64775776159447995</v>
+      </c>
+      <c r="Q71" s="9">
+        <v>0.93973731940006799</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="6"/>
+        <v>5694</v>
+      </c>
+      <c r="T71">
+        <f t="shared" si="7"/>
+        <v>-1723</v>
+      </c>
+      <c r="U71"/>
+      <c r="V71">
+        <f t="shared" si="8"/>
+        <v>778</v>
+      </c>
+      <c r="W71">
+        <f t="shared" si="9"/>
+        <v>-66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>50</v>
+      </c>
+      <c r="B72">
+        <v>22508</v>
+      </c>
+      <c r="C72">
+        <v>1156</v>
+      </c>
+      <c r="D72">
+        <v>13035</v>
+      </c>
+      <c r="E72" s="1">
+        <v>0.63326112033311699</v>
+      </c>
+      <c r="F72" s="1">
+        <v>0.95114942528735602</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0.76031550323441399</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0.67862225331049897</v>
+      </c>
+      <c r="I72" s="1">
+        <v>0.65515745842684203</v>
+      </c>
+      <c r="J72">
+        <v>194</v>
+      </c>
+      <c r="K72">
+        <v>226</v>
+      </c>
+      <c r="L72">
+        <v>252</v>
+      </c>
+      <c r="M72" s="1">
+        <v>0.43497757847533602</v>
+      </c>
+      <c r="N72" s="1">
+        <v>0.46190476190476099</v>
+      </c>
+      <c r="O72" s="1">
+        <v>0.44803695150115402</v>
+      </c>
+      <c r="P72" s="1">
+        <v>0.44010889292195998</v>
+      </c>
+      <c r="Q72" s="1">
+        <v>0.65515745842684203</v>
+      </c>
+      <c r="S72">
+        <f t="shared" si="6"/>
+        <v>7354</v>
+      </c>
+      <c r="T72">
+        <f t="shared" si="7"/>
+        <v>-12686</v>
+      </c>
+      <c r="V72">
+        <f t="shared" si="8"/>
+        <v>1039</v>
+      </c>
+      <c r="W72">
+        <f t="shared" si="9"/>
+        <v>-210</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>51</v>
+      </c>
+      <c r="B73">
+        <v>22535</v>
+      </c>
+      <c r="C73">
+        <v>1207</v>
+      </c>
+      <c r="D73">
+        <v>13008</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0.63402076358213999</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0.94916182292982898</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0.76022602681960005</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0.67911689188374702</v>
+      </c>
+      <c r="I73" s="1">
+        <v>0.65579447601919505</v>
+      </c>
+      <c r="J73">
+        <v>195</v>
+      </c>
+      <c r="K73">
+        <v>301</v>
+      </c>
+      <c r="L73">
+        <v>251</v>
+      </c>
+      <c r="M73" s="1">
+        <v>0.43721973094170402</v>
+      </c>
+      <c r="N73" s="1">
+        <v>0.39314516129032201</v>
+      </c>
+      <c r="O73" s="1">
+        <v>0.41401273885350298</v>
+      </c>
+      <c r="P73" s="1">
+        <v>0.42763157894736797</v>
+      </c>
+      <c r="Q73" s="1">
+        <v>0.65579447601919505</v>
+      </c>
+      <c r="S73">
+        <f t="shared" si="6"/>
+        <v>7303</v>
+      </c>
+      <c r="T73">
+        <f t="shared" si="7"/>
+        <v>-12659</v>
+      </c>
+      <c r="V73">
+        <f t="shared" si="8"/>
+        <v>964</v>
+      </c>
+      <c r="W73">
+        <f t="shared" si="9"/>
+        <v>-209</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>52</v>
+      </c>
+      <c r="B74">
+        <v>22544</v>
+      </c>
+      <c r="C74">
+        <v>1229</v>
+      </c>
+      <c r="D74">
+        <v>12999</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0.63427397799847995</v>
+      </c>
+      <c r="F74" s="1">
+        <v>0.94830269633617903</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0.76013217344392703</v>
+      </c>
+      <c r="H74" s="1">
+        <v>0.67926120100033105</v>
+      </c>
+      <c r="I74" s="1">
+        <v>0.65599720654134897</v>
+      </c>
+      <c r="J74">
+        <v>195</v>
+      </c>
+      <c r="K74">
+        <v>333</v>
+      </c>
+      <c r="L74">
+        <v>251</v>
+      </c>
+      <c r="M74" s="1">
+        <v>0.43721973094170402</v>
+      </c>
+      <c r="N74" s="1">
+        <v>0.36931818181818099</v>
+      </c>
+      <c r="O74" s="1">
+        <v>0.40041067761806898</v>
+      </c>
+      <c r="P74" s="1">
+        <v>0.42171280276816597</v>
+      </c>
+      <c r="Q74" s="1">
+        <v>0.65599720654134897</v>
+      </c>
+      <c r="S74">
+        <f t="shared" si="6"/>
+        <v>7281</v>
+      </c>
+      <c r="T74">
+        <f t="shared" si="7"/>
+        <v>-12650</v>
+      </c>
+      <c r="V74">
+        <f t="shared" si="8"/>
+        <v>932</v>
+      </c>
+      <c r="W74">
+        <f t="shared" si="9"/>
+        <v>-209</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>53</v>
+      </c>
+      <c r="B75">
+        <v>22547</v>
+      </c>
+      <c r="C75">
+        <v>1253</v>
+      </c>
+      <c r="D75">
+        <v>12996</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0.63435838280392698</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0.94735294117646995</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0.75988743406973003</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0.67924107680813595</v>
+      </c>
+      <c r="I75" s="1">
+        <v>0.65603296022252799</v>
+      </c>
+      <c r="J75">
+        <v>197</v>
+      </c>
+      <c r="K75">
+        <v>356</v>
+      </c>
+      <c r="L75">
+        <v>249</v>
+      </c>
+      <c r="M75" s="1">
+        <v>0.44170403587443902</v>
+      </c>
+      <c r="N75" s="1">
+        <v>0.35623869801084901</v>
+      </c>
+      <c r="O75" s="1">
+        <v>0.394394394394394</v>
+      </c>
+      <c r="P75" s="1">
+        <v>0.42148053059477902</v>
+      </c>
+      <c r="Q75" s="1">
+        <v>0.65603296022252799</v>
+      </c>
+      <c r="S75">
+        <f t="shared" si="6"/>
+        <v>7257</v>
+      </c>
+      <c r="T75">
+        <f t="shared" si="7"/>
+        <v>-12647</v>
+      </c>
+      <c r="V75">
+        <f t="shared" si="8"/>
+        <v>909</v>
+      </c>
+      <c r="W75">
+        <f t="shared" si="9"/>
+        <v>-207</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>31</v>
+      </c>
+      <c r="B79" t="s">
+        <v>32</v>
+      </c>
+      <c r="C79" t="s">
+        <v>32</v>
+      </c>
+      <c r="D79" t="s">
+        <v>32</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J79" t="s">
+        <v>33</v>
+      </c>
+      <c r="K79" t="s">
+        <v>33</v>
+      </c>
+      <c r="L79" t="s">
+        <v>33</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A80" s="8"/>
+      <c r="B80" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G80" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H80" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I80" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J80" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K80" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L80" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M80" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N80" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="P80" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q80" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A81" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" s="5">
+        <v>1135</v>
+      </c>
+      <c r="C81" s="5">
+        <v>160</v>
+      </c>
+      <c r="D81" s="5">
+        <v>128</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0.89865399841646798</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0.87644787644787603</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0.88741204065676305</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0.89412320781471499</v>
+      </c>
+      <c r="I81" s="3">
+        <v>0.89638287790238502</v>
+      </c>
+      <c r="J81" s="5">
+        <v>203</v>
+      </c>
+      <c r="K81" s="5">
+        <v>81</v>
+      </c>
+      <c r="L81" s="5">
+        <v>144</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0.58501440922190195</v>
+      </c>
+      <c r="N81" s="3">
+        <v>0.71478873239436602</v>
+      </c>
+      <c r="O81" s="3">
+        <v>0.64342313787638605</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0.60705741626794196</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>0.89638287790238502</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A82" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" s="5">
+        <v>1152</v>
+      </c>
+      <c r="C82" s="5">
+        <v>197</v>
+      </c>
+      <c r="D82" s="5">
+        <v>111</v>
+      </c>
+      <c r="E82" s="3">
+        <v>0.91211401425178096</v>
+      </c>
+      <c r="F82" s="3">
+        <v>0.85396590066716005</v>
+      </c>
+      <c r="G82" s="2">
+        <v>0.88208269525267902</v>
+      </c>
+      <c r="H82" s="2">
+        <v>0.89985939696922301</v>
+      </c>
+      <c r="I82" s="3">
+        <v>0.90594526580685697</v>
+      </c>
+      <c r="J82" s="5">
+        <v>235</v>
+      </c>
+      <c r="K82" s="5">
+        <v>110</v>
+      </c>
+      <c r="L82" s="5">
+        <v>112</v>
+      </c>
+      <c r="M82" s="3">
+        <v>0.67723342939481201</v>
+      </c>
+      <c r="N82" s="3">
+        <v>0.68115942028985499</v>
+      </c>
+      <c r="O82" s="3">
+        <v>0.67919075144508601</v>
+      </c>
+      <c r="P82" s="3">
+        <v>0.67801500288517003</v>
+      </c>
+      <c r="Q82" s="3">
+        <v>0.90594526580685697</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" s="17">
+        <v>1155</v>
+      </c>
+      <c r="C83" s="17">
+        <v>213</v>
+      </c>
+      <c r="D83" s="17">
+        <v>108</v>
+      </c>
+      <c r="E83" s="18">
+        <v>0.91448931116389498</v>
+      </c>
+      <c r="F83" s="18">
+        <v>0.84429824561403499</v>
+      </c>
+      <c r="G83" s="18">
+        <v>0.87799315849486803</v>
+      </c>
+      <c r="H83" s="18">
+        <v>0.89953271028037396</v>
+      </c>
+      <c r="I83" s="18">
+        <v>0.90694935217903405</v>
+      </c>
+      <c r="J83" s="17">
+        <v>249</v>
+      </c>
+      <c r="K83" s="17">
+        <v>129</v>
+      </c>
+      <c r="L83" s="17">
+        <v>98</v>
+      </c>
+      <c r="M83" s="18">
+        <v>0.71757925072046103</v>
+      </c>
+      <c r="N83" s="18">
+        <v>0.65873015873015806</v>
+      </c>
+      <c r="O83" s="18">
+        <v>0.68689655172413699</v>
+      </c>
+      <c r="P83" s="18">
+        <v>0.70498301245753103</v>
+      </c>
+      <c r="Q83" s="18">
+        <v>0.90694935217903405</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" s="17">
+        <v>1181</v>
+      </c>
+      <c r="C84" s="17">
+        <v>481</v>
+      </c>
+      <c r="D84" s="17">
+        <v>82</v>
+      </c>
+      <c r="E84" s="18">
+        <v>0.93507521773555002</v>
+      </c>
+      <c r="F84" s="18">
+        <v>0.71058965102286398</v>
+      </c>
+      <c r="G84" s="18">
+        <v>0.80752136752136705</v>
+      </c>
+      <c r="H84" s="18">
+        <v>0.87950551087280304</v>
+      </c>
+      <c r="I84" s="18">
+        <v>0.90643948115741801</v>
+      </c>
+      <c r="J84" s="17">
+        <v>309</v>
+      </c>
+      <c r="K84" s="17">
+        <v>378</v>
+      </c>
+      <c r="L84" s="17">
+        <v>38</v>
+      </c>
+      <c r="M84" s="18">
+        <v>0.890489913544668</v>
+      </c>
+      <c r="N84" s="18">
+        <v>0.449781659388646</v>
+      </c>
+      <c r="O84" s="18">
+        <v>0.59767891682785301</v>
+      </c>
+      <c r="P84" s="18">
+        <v>0.74457831325301205</v>
+      </c>
+      <c r="Q84" s="18">
+        <v>0.90643948115741801</v>
+      </c>
+      <c r="R84" s="19"/>
+      <c r="S84" s="19"/>
+      <c r="T84" s="19"/>
+      <c r="U84" s="19"/>
+      <c r="V84" s="19"/>
+      <c r="W84" s="19"/>
+      <c r="X84" s="19"/>
+    </row>
+    <row r="87" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="88" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E89" s="20"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="20"/>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
+      <c r="M89" s="20"/>
+      <c r="N89" s="20"/>
+      <c r="O89" s="20"/>
+      <c r="P89" s="20"/>
+      <c r="Q89" s="20"/>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="H90" s="2"/>
+      <c r="O90" s="2"/>
+      <c r="P90" s="2"/>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="8"/>
+      <c r="K94" s="8"/>
+      <c r="L94" s="8"/>
+      <c r="M94" s="9"/>
+      <c r="N94" s="9"/>
+      <c r="O94" s="9"/>
+      <c r="P94" s="9"/>
+      <c r="Q94" s="9"/>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="O95" s="2"/>
+      <c r="P95" s="2"/>
+    </row>
+    <row r="99" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B99" s="8"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="8"/>
+      <c r="K99" s="8"/>
+      <c r="L99" s="8"/>
+      <c r="M99" s="9"/>
+      <c r="N99" s="9"/>
+      <c r="O99" s="9"/>
+      <c r="P99" s="9"/>
+      <c r="Q99" s="9"/>
+    </row>
+    <row r="101" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="G101" s="2"/>
+    </row>
+    <row r="104" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="H104" s="2"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G40:G1048576 G2:G23">
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40:H1048576 H2:H23">
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I40:I1048576 I2:I23">
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O40:O1048576 O2:O23">
-    <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P40:P1048576 P2:P23">
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q40:Q1048576 Q2:Q23">
-    <cfRule type="colorScale" priority="56">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40:E1048576 E2:E23">
-    <cfRule type="colorScale" priority="59">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F40:F1048576 F2:F23">
-    <cfRule type="colorScale" priority="62">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M40:M1048576 M2:M23">
-    <cfRule type="colorScale" priority="65">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N40:N1048576 N2:N23">
-    <cfRule type="colorScale" priority="68">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="U2:U1048576">
-    <cfRule type="dataBar" priority="20">
+    <cfRule type="dataBar" priority="229">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2184,7 +6016,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2:T1048576">
-    <cfRule type="dataBar" priority="18">
+    <cfRule type="dataBar" priority="227">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2198,7 +6030,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:T1048576">
-    <cfRule type="dataBar" priority="15">
+    <cfRule type="dataBar" priority="224">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2212,7 +6044,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R1048576">
-    <cfRule type="dataBar" priority="21">
+    <cfRule type="dataBar" priority="230">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2225,8 +6057,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S2:S1048576 T4:T23">
-    <cfRule type="dataBar" priority="19">
+  <conditionalFormatting sqref="S2:S52 T4:T52 S76:S1048576 S53:T75">
+    <cfRule type="dataBar" priority="228">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2239,8 +6071,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V1048576 W4:W23">
-    <cfRule type="dataBar" priority="13">
+  <conditionalFormatting sqref="V2:V52 W4:W52 V76:V1048576 V53:W75">
+    <cfRule type="dataBar" priority="222">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2254,7 +6086,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:W1048576">
-    <cfRule type="dataBar" priority="12">
+    <cfRule type="dataBar" priority="221">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2268,7 +6100,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:W1048576">
-    <cfRule type="dataBar" priority="11">
+    <cfRule type="dataBar" priority="220">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2282,7 +6114,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="215">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2296,7 +6128,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="214">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2310,7 +6142,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="213">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2324,7 +6156,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="216">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2338,7 +6170,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="212">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2352,7 +6184,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="211">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2365,15 +6197,1803 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
+  <conditionalFormatting sqref="M105:M1048576 M1:M27 M53:M79">
+    <cfRule type="colorScale" priority="210">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M53:M75">
+    <cfRule type="colorScale" priority="383">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="384">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N53:N75">
+    <cfRule type="colorScale" priority="387">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O53:Q75">
+    <cfRule type="colorScale" priority="389">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G53:I75">
+    <cfRule type="colorScale" priority="391">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G105:G1048576 G53:G79 G2:G23">
+    <cfRule type="colorScale" priority="392">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H105:H1048576 H2:H23 H53:H79">
+    <cfRule type="colorScale" priority="396">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I105:I1048576 I53:I79 I2:I23">
+    <cfRule type="colorScale" priority="400">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O105:O1048576 O53:O79 O2:O23">
+    <cfRule type="colorScale" priority="404">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P105:P1048576 P53:P79 P2:P23">
+    <cfRule type="colorScale" priority="408">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q105:Q1048576 Q2:Q23 Q53:Q79">
+    <cfRule type="colorScale" priority="412">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105:E1048576 E53:E79 E2:E23">
+    <cfRule type="colorScale" priority="416">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F105:F1048576 F2:F23 F53:F79">
+    <cfRule type="colorScale" priority="420">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M105:M1048576 M53:M79 M2:M23">
+    <cfRule type="colorScale" priority="424">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N105:N1048576 N2:N23 N53:N79">
+    <cfRule type="colorScale" priority="428">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:E32">
+    <cfRule type="colorScale" priority="159">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="375">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33:F37">
+    <cfRule type="colorScale" priority="190">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33:F37">
+    <cfRule type="colorScale" priority="189">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M89:M104 M80">
+    <cfRule type="colorScale" priority="168">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F90">
+    <cfRule type="colorScale" priority="170">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M89:M104 M80">
+    <cfRule type="colorScale" priority="171">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="172">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N89:N104 N80">
+    <cfRule type="colorScale" priority="173">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O89:Q104 O80:Q80">
+    <cfRule type="colorScale" priority="174">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G95:I104 H90:I94 G80:I80 G89:I89">
+    <cfRule type="colorScale" priority="175">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G95:G104">
+    <cfRule type="colorScale" priority="176">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H95:H104 H91:H93">
+    <cfRule type="colorScale" priority="177">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I95:I104 I91:I93">
+    <cfRule type="colorScale" priority="178">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O95:O104 O91:O93">
+    <cfRule type="colorScale" priority="179">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P95:P104 P91:P93">
+    <cfRule type="colorScale" priority="180">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q95:Q104 Q91:Q93">
+    <cfRule type="colorScale" priority="181">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95:E104 E91:E93">
+    <cfRule type="colorScale" priority="182">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F95:F104 F91:F93">
+    <cfRule type="colorScale" priority="183">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M95:M104 M91:M93">
+    <cfRule type="colorScale" priority="184">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N95:N104 N91:N93">
+    <cfRule type="colorScale" priority="185">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="colorScale" priority="167">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="169">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F80">
+    <cfRule type="colorScale" priority="165">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="166">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F80">
+    <cfRule type="colorScale" priority="164">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F89">
+    <cfRule type="colorScale" priority="163">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F89">
+    <cfRule type="colorScale" priority="162">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G90:G94">
+    <cfRule type="colorScale" priority="161">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G90:G94">
+    <cfRule type="colorScale" priority="160">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28:F32">
+    <cfRule type="colorScale" priority="157">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="158">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28:G32">
+    <cfRule type="colorScale" priority="106">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="156">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33:E37">
+    <cfRule type="colorScale" priority="147">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="148">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38:E42">
+    <cfRule type="colorScale" priority="145">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="146">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43:E47">
+    <cfRule type="colorScale" priority="143">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="144">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48:E52">
+    <cfRule type="colorScale" priority="141">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="142">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48:F52">
+    <cfRule type="colorScale" priority="139">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="140">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43:F47">
+    <cfRule type="colorScale" priority="137">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="138">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38:F42">
+    <cfRule type="colorScale" priority="135">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="136">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M28:M32">
+    <cfRule type="colorScale" priority="127">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="128">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M33:M37">
+    <cfRule type="colorScale" priority="123">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="124">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M38:M42">
+    <cfRule type="colorScale" priority="121">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="122">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M43:M47">
+    <cfRule type="colorScale" priority="119">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="120">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M48:M52">
+    <cfRule type="colorScale" priority="117">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="118">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N48:N52">
+    <cfRule type="colorScale" priority="115">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="116">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N43:N47">
+    <cfRule type="colorScale" priority="113">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="114">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N38:N42">
+    <cfRule type="colorScale" priority="111">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="112">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N33:N37">
+    <cfRule type="colorScale" priority="109">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="110">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N28:N32">
+    <cfRule type="colorScale" priority="107">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="108">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33:G37">
+    <cfRule type="colorScale" priority="104">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="105">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38:G42">
+    <cfRule type="colorScale" priority="102">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="103">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G43:G47">
+    <cfRule type="colorScale" priority="100">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="101">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G48:G52">
+    <cfRule type="colorScale" priority="98">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="99">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48:H52">
+    <cfRule type="colorScale" priority="96">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="97">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43:H47">
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="95">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38:H42">
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="93">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33:H37">
+    <cfRule type="colorScale" priority="90">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="91">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28:H32">
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="89">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28:I32">
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="87">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33:I37">
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="85">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38:I42">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="83">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43:I47">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I48:I52">
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P28:P32">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P33:P37">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P38:P42">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P43:P47">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P48:P52">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q48:Q52">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q43:Q47">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q38:Q42">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q33:Q37">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q28:Q32">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O28:O32">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O33:O37">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O38:O42">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O43:O47">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O48:O52">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81:E84">
+    <cfRule type="colorScale" priority="606">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="607">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81:E84">
+    <cfRule type="colorScale" priority="610">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F81:F84">
+    <cfRule type="colorScale" priority="612">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="613">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F81:F84">
+    <cfRule type="colorScale" priority="616">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M81:M84">
+    <cfRule type="colorScale" priority="618">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="619">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M81:M84">
+    <cfRule type="colorScale" priority="622">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N81:N84">
+    <cfRule type="colorScale" priority="624">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="625">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N81:N84">
+    <cfRule type="colorScale" priority="628">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O81:O84">
+    <cfRule type="colorScale" priority="636">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P81:P84">
+    <cfRule type="colorScale" priority="640">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q81:Q84">
+    <cfRule type="colorScale" priority="644">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G81:G84">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H81:H84">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I81:I84">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -2435,7 +8055,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>S2:S1048576 T4:T23</xm:sqref>
+          <xm:sqref>S2:S52 T4:T52 S76:S1048576 S53:T75</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2FC580FD-5E40-914C-BEAB-6D1D4D5F13AC}">
@@ -2446,7 +8066,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>V2:V1048576 W4:W23</xm:sqref>
+          <xm:sqref>V2:V52 W4:W52 V76:V1048576 V53:W75</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9DF567FE-5C39-5643-BFA9-9E95CDCA8063}">

--- a/vcf_stuff/panel_of_normals/pon_eval_colo.xlsx
+++ b/vcf_stuff/panel_of_normals/pon_eval_colo.xlsx
@@ -8,27 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vsaveliev/git/umccr/vcf_stuff/vcf_stuff/panel_of_normals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47761EAB-8563-624A-A83A-9E8FA968F696}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{90CB3743-7583-E845-BD6A-84ABD71B3430}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44680" yWindow="2140" windowWidth="32120" windowHeight="36020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44680" yWindow="11540" windowWidth="32120" windowHeight="20560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="86">
   <si>
     <t>TP</t>
   </si>
@@ -283,6 +281,9 @@
   </si>
   <si>
     <t>MB_300vs50-AF10 (no filtering)</t>
+  </si>
+  <si>
+    <t>TODO: try PoN'ing only VarDict</t>
   </si>
 </sst>
 </file>
@@ -704,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="125" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="125" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="L85" sqref="L85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2429,19 +2430,19 @@
         <v>0.97327679991073601</v>
       </c>
       <c r="S28">
-        <f t="shared" ref="S24:S53" si="2">C$3-C28</f>
+        <f t="shared" ref="S28:S53" si="2">C$3-C28</f>
         <v>4798</v>
       </c>
       <c r="T28">
-        <f t="shared" ref="T24:T53" si="3">D$3-D28</f>
+        <f t="shared" ref="T28:T53" si="3">D$3-D28</f>
         <v>-303</v>
       </c>
       <c r="V28">
-        <f t="shared" ref="V24:V53" si="4">K$3-K28</f>
+        <f t="shared" ref="V28:V53" si="4">K$3-K28</f>
         <v>1003</v>
       </c>
       <c r="W28">
-        <f t="shared" ref="W24:W53" si="5">L$3-L28</f>
+        <f t="shared" ref="W28:W53" si="5">L$3-L28</f>
         <v>-41</v>
       </c>
     </row>
@@ -4279,19 +4280,19 @@
         <v>0.97502137960427504</v>
       </c>
       <c r="S56">
-        <f t="shared" ref="S54:S75" si="6">C$3-C56</f>
+        <f t="shared" ref="S56:S75" si="6">C$3-C56</f>
         <v>4412</v>
       </c>
       <c r="T56">
-        <f t="shared" ref="T54:T75" si="7">D$3-D56</f>
+        <f t="shared" ref="T56:T75" si="7">D$3-D56</f>
         <v>-192</v>
       </c>
       <c r="V56">
-        <f t="shared" ref="V54:V75" si="8">K$3-K56</f>
+        <f t="shared" ref="V56:V75" si="8">K$3-K56</f>
         <v>787</v>
       </c>
       <c r="W56">
-        <f t="shared" ref="W54:W75" si="9">L$3-L56</f>
+        <f t="shared" ref="W56:W75" si="9">L$3-L56</f>
         <v>-31</v>
       </c>
     </row>
@@ -5936,6 +5937,9 @@
     <row r="87" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="88" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="89" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="19" t="s">
+        <v>85</v>
+      </c>
       <c r="E89" s="20"/>
       <c r="F89" s="20"/>
       <c r="G89" s="20"/>
@@ -5953,22 +5957,22 @@
       <c r="P90" s="2"/>
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B94" s="8"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
-      <c r="H94" s="9"/>
-      <c r="I94" s="9"/>
-      <c r="J94" s="8"/>
-      <c r="K94" s="8"/>
-      <c r="L94" s="8"/>
-      <c r="M94" s="9"/>
-      <c r="N94" s="9"/>
-      <c r="O94" s="9"/>
-      <c r="P94" s="9"/>
-      <c r="Q94" s="9"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="20"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="20"/>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="19"/>
+      <c r="K94" s="19"/>
+      <c r="L94" s="19"/>
+      <c r="M94" s="20"/>
+      <c r="N94" s="20"/>
+      <c r="O94" s="20"/>
+      <c r="P94" s="20"/>
+      <c r="Q94" s="20"/>
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="G95" s="2"/>

--- a/vcf_stuff/panel_of_normals/pon_eval_colo.xlsx
+++ b/vcf_stuff/panel_of_normals/pon_eval_colo.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vsaveliev/git/umccr/vcf_stuff/vcf_stuff/panel_of_normals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90CB3743-7583-E845-BD6A-84ABD71B3430}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D01BF87-E6BB-B940-AACA-819D317503AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44680" yWindow="11540" windowWidth="32120" windowHeight="20560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8740" yWindow="9680" windowWidth="50340" windowHeight="33500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="114">
   <si>
     <t>TP</t>
   </si>
@@ -283,7 +283,91 @@
     <t>MB_300vs50-AF10 (no filtering)</t>
   </si>
   <si>
-    <t>TODO: try PoN'ing only VarDict</t>
+    <t>COLO829_1-ensemble-effects</t>
+  </si>
+  <si>
+    <t>COLO829_2-ensemble-effects</t>
+  </si>
+  <si>
+    <t>COLO829_3-ensemble-effects</t>
+  </si>
+  <si>
+    <t>COLO829_4-ensemble-effects</t>
+  </si>
+  <si>
+    <t>COLO829_5-ensemble-effects</t>
+  </si>
+  <si>
+    <t>COLO829, 100%</t>
+  </si>
+  <si>
+    <t>COLO829, 40%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TP  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  FP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  FN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Prec  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F1    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F2    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">no filtering                                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">static cutoff HP len&lt;=5                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF&gt;=10%, no HP filtering                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dyn AF cutoff by HP len, coef=40                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dyn AF cutoff by HP len, coef=50                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dyn AF cutoff by HP len, coef=60                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dyn AF cutoff by HP len, coef=Inf (no filt)                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dyn AF cutoff by HP len, coef=40, min AF 35%                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dyn AF cutoff by HP len, coef=40, min AF 35%, filter VarDict only         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dyn AF cutoff by HP len, coef=40, min AF 35%, min change len =2bp         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dyn AF cutoff by HP len, coef=40, min AF 35%, min change len =2bp, HPx1   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dyn AF cutoff by HP len, coef=40, min AF 35%, min change len =2bp, HPx1,3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dyn AF cutoff by HP len, coef=40, min AF 35%, HPx1,3                      </t>
+  </si>
+  <si>
+    <t>MB</t>
   </si>
 </sst>
 </file>
@@ -703,26 +787,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X104"/>
+  <dimension ref="A1:W166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="125" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="L85" sqref="L85"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="92" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="A149" sqref="A149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5" customWidth="1"/>
-    <col min="5" max="6" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.83203125" customWidth="1"/>
-    <col min="13" max="14" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="23" width="7.5" customWidth="1"/>
+    <col min="1" max="1" width="82.5" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.5" customWidth="1"/>
+    <col min="19" max="19" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.5" customWidth="1"/>
+    <col min="22" max="22" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5611,402 +5696,2982 @@
         <v>-207</v>
       </c>
     </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>31</v>
+      </c>
+      <c r="B77" t="s">
+        <v>32</v>
+      </c>
+      <c r="C77" t="s">
+        <v>32</v>
+      </c>
+      <c r="D77" t="s">
+        <v>32</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J77" t="s">
+        <v>33</v>
+      </c>
+      <c r="K77" t="s">
+        <v>33</v>
+      </c>
+      <c r="L77" t="s">
+        <v>33</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q77" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
+        <v>2</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J78" t="s">
+        <v>0</v>
+      </c>
+      <c r="K78" t="s">
+        <v>1</v>
+      </c>
+      <c r="L78" t="s">
+        <v>2</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q78" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>34</v>
+      </c>
+      <c r="B79">
+        <v>34884</v>
+      </c>
+      <c r="C79">
+        <v>3689</v>
+      </c>
+      <c r="D79">
+        <v>659</v>
+      </c>
+      <c r="E79" s="1">
+        <v>0.98145907773682495</v>
+      </c>
+      <c r="F79" s="1">
+        <v>0.90436315557514302</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0.94133520427438</v>
+      </c>
+      <c r="H79" s="1">
+        <v>0.96500594760574199</v>
+      </c>
+      <c r="I79" s="1">
+        <v>0.97316297494838999</v>
+      </c>
+      <c r="J79">
+        <v>361</v>
+      </c>
+      <c r="K79">
+        <v>251</v>
+      </c>
+      <c r="L79">
+        <v>85</v>
+      </c>
+      <c r="M79" s="1">
+        <v>0.80941704035874396</v>
+      </c>
+      <c r="N79" s="1">
+        <v>0.58986928104575098</v>
+      </c>
+      <c r="O79" s="1">
+        <v>0.68241965973534902</v>
+      </c>
+      <c r="P79" s="1">
+        <v>0.753338898163606</v>
+      </c>
+      <c r="Q79" s="1">
+        <v>0.97316297494838999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>35</v>
+      </c>
+      <c r="B80">
+        <v>35006</v>
+      </c>
+      <c r="C80">
+        <v>3894</v>
+      </c>
+      <c r="D80">
+        <v>537</v>
+      </c>
+      <c r="E80" s="1">
+        <v>0.984891539825</v>
+      </c>
+      <c r="F80" s="1">
+        <v>0.89989717223650301</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0.94047794957215503</v>
+      </c>
+      <c r="H80" s="1">
+        <v>0.96663205796589102</v>
+      </c>
+      <c r="I80" s="1">
+        <v>0.97567637623436698</v>
+      </c>
+      <c r="J80">
+        <v>369</v>
+      </c>
+      <c r="K80">
+        <v>340</v>
+      </c>
+      <c r="L80">
+        <v>77</v>
+      </c>
+      <c r="M80" s="1">
+        <v>0.82735426008968604</v>
+      </c>
+      <c r="N80" s="1">
+        <v>0.52045133991537296</v>
+      </c>
+      <c r="O80" s="1">
+        <v>0.63896103896103795</v>
+      </c>
+      <c r="P80" s="1">
+        <v>0.74007220216606495</v>
+      </c>
+      <c r="Q80" s="1">
+        <v>0.97567637623436698</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>36</v>
+      </c>
+      <c r="B81">
+        <v>35020</v>
+      </c>
+      <c r="C81">
+        <v>3997</v>
+      </c>
+      <c r="D81">
+        <v>523</v>
+      </c>
+      <c r="E81" s="1">
+        <v>0.98528542891708604</v>
+      </c>
+      <c r="F81" s="1">
+        <v>0.89755747494681803</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0.939377682403433</v>
+      </c>
+      <c r="H81" s="1">
+        <v>0.96639420715385604</v>
+      </c>
+      <c r="I81" s="1">
+        <v>0.97574838954149301</v>
+      </c>
+      <c r="J81">
+        <v>372</v>
+      </c>
+      <c r="K81">
+        <v>409</v>
+      </c>
+      <c r="L81">
+        <v>74</v>
+      </c>
+      <c r="M81" s="1">
+        <v>0.83408071748878898</v>
+      </c>
+      <c r="N81" s="1">
+        <v>0.476312419974391</v>
+      </c>
+      <c r="O81" s="1">
+        <v>0.60635696821515805</v>
+      </c>
+      <c r="P81" s="1">
+        <v>0.72514619883040898</v>
+      </c>
+      <c r="Q81" s="1">
+        <v>0.97574838954149301</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>37</v>
+      </c>
+      <c r="B82">
+        <v>35026</v>
+      </c>
+      <c r="C82">
+        <v>4051</v>
+      </c>
+      <c r="D82">
+        <v>517</v>
+      </c>
+      <c r="E82" s="1">
+        <v>0.98545423852797998</v>
+      </c>
+      <c r="F82" s="1">
+        <v>0.89633288123448496</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0.93878316805146</v>
+      </c>
+      <c r="H82" s="1">
+        <v>0.96623981373690304</v>
+      </c>
+      <c r="I82" s="1">
+        <v>0.97575244314192999</v>
+      </c>
+      <c r="J82">
+        <v>375</v>
+      </c>
+      <c r="K82">
+        <v>458</v>
+      </c>
+      <c r="L82">
+        <v>71</v>
+      </c>
+      <c r="M82" s="1">
+        <v>0.84080717488789203</v>
+      </c>
+      <c r="N82" s="1">
+        <v>0.450180072028811</v>
+      </c>
+      <c r="O82" s="1">
+        <v>0.58639562157935798</v>
+      </c>
+      <c r="P82" s="1">
+        <v>0.71646923958731301</v>
+      </c>
+      <c r="Q82" s="1">
+        <v>0.97575244314192999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" s="19">
+        <v>35113</v>
+      </c>
+      <c r="C83" s="19">
+        <v>4869</v>
+      </c>
+      <c r="D83" s="19">
+        <v>430</v>
+      </c>
+      <c r="E83" s="20">
+        <v>0.98790197788594003</v>
+      </c>
+      <c r="F83" s="20">
+        <v>0.87822019908959004</v>
+      </c>
+      <c r="G83" s="20">
+        <v>0.92983780205230004</v>
+      </c>
+      <c r="H83" s="20">
+        <v>0.96382731095666296</v>
+      </c>
+      <c r="I83" s="20">
+        <v>0.97571616338167499</v>
+      </c>
+      <c r="J83" s="19">
+        <v>390</v>
+      </c>
+      <c r="K83" s="19">
+        <v>1093</v>
+      </c>
+      <c r="L83" s="19">
+        <v>56</v>
+      </c>
+      <c r="M83" s="20">
+        <v>0.87443946188340804</v>
+      </c>
+      <c r="N83" s="20">
+        <v>0.26298044504383</v>
+      </c>
+      <c r="O83" s="20">
+        <v>0.40435458786936201</v>
+      </c>
+      <c r="P83" s="20">
+        <v>0.596877869605142</v>
+      </c>
+      <c r="Q83" s="20">
+        <v>0.97571616338167499</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B84" s="19">
+        <v>34834</v>
+      </c>
+      <c r="C84" s="19">
+        <v>3715</v>
+      </c>
+      <c r="D84" s="19">
+        <v>709</v>
+      </c>
+      <c r="E84" s="20">
+        <v>0.98005233097937705</v>
+      </c>
+      <c r="F84" s="20">
+        <v>0.90362914731899602</v>
+      </c>
+      <c r="G84" s="20">
+        <v>0.94029044971116904</v>
+      </c>
+      <c r="H84" s="20">
+        <v>0.963750753924557</v>
+      </c>
+      <c r="I84" s="20">
+        <v>0.97183318639868699</v>
+      </c>
+      <c r="J84" s="19">
+        <v>361</v>
+      </c>
+      <c r="K84" s="19">
+        <v>243</v>
+      </c>
+      <c r="L84" s="19">
+        <v>85</v>
+      </c>
+      <c r="M84" s="20">
+        <v>0.80941704035874396</v>
+      </c>
+      <c r="N84" s="20">
+        <v>0.59768211920529801</v>
+      </c>
+      <c r="O84" s="20">
+        <v>0.68761904761904702</v>
+      </c>
+      <c r="P84" s="20">
+        <v>0.75586264656616398</v>
+      </c>
+      <c r="Q84" s="20">
+        <v>0.97183318639868699</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>39</v>
+      </c>
+      <c r="B85">
+        <v>34954</v>
+      </c>
+      <c r="C85">
+        <v>3995</v>
+      </c>
+      <c r="D85">
+        <v>589</v>
+      </c>
+      <c r="E85" s="1">
+        <v>0.98342852319725405</v>
+      </c>
+      <c r="F85" s="1">
+        <v>0.89742997252817702</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0.93846319067819295</v>
+      </c>
+      <c r="H85" s="1">
+        <v>0.96493504342400904</v>
+      </c>
+      <c r="I85" s="1">
+        <v>0.974094015093245</v>
+      </c>
+      <c r="J85">
+        <v>369</v>
+      </c>
+      <c r="K85">
+        <v>322</v>
+      </c>
+      <c r="L85">
+        <v>77</v>
+      </c>
+      <c r="M85" s="1">
+        <v>0.82735426008968604</v>
+      </c>
+      <c r="N85" s="1">
+        <v>0.53400868306801696</v>
+      </c>
+      <c r="O85" s="1">
+        <v>0.64907651715039505</v>
+      </c>
+      <c r="P85" s="1">
+        <v>0.74545454545454504</v>
+      </c>
+      <c r="Q85" s="1">
+        <v>0.974094015093245</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>40</v>
+      </c>
+      <c r="B86">
+        <v>34968</v>
+      </c>
+      <c r="C86">
+        <v>4125</v>
+      </c>
+      <c r="D86">
+        <v>575</v>
+      </c>
+      <c r="E86" s="1">
+        <v>0.98382241228933898</v>
+      </c>
+      <c r="F86" s="1">
+        <v>0.89448238815133096</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0.93702770780856404</v>
+      </c>
+      <c r="H86" s="1">
+        <v>0.96455465754558201</v>
+      </c>
+      <c r="I86" s="1">
+        <v>0.97409326424870402</v>
+      </c>
+      <c r="J86">
+        <v>371</v>
+      </c>
+      <c r="K86">
+        <v>391</v>
+      </c>
+      <c r="L86">
+        <v>75</v>
+      </c>
+      <c r="M86" s="1">
+        <v>0.83183856502242104</v>
+      </c>
+      <c r="N86" s="1">
+        <v>0.48687664041994699</v>
+      </c>
+      <c r="O86" s="1">
+        <v>0.61423841059602602</v>
+      </c>
+      <c r="P86" s="1">
+        <v>0.72859387274155496</v>
+      </c>
+      <c r="Q86" s="1">
+        <v>0.97409326424870402</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B87" s="19">
+        <v>34974</v>
+      </c>
+      <c r="C87" s="19">
+        <v>4211</v>
+      </c>
+      <c r="D87" s="19">
+        <v>569</v>
+      </c>
+      <c r="E87" s="20">
+        <v>0.98399122190023303</v>
+      </c>
+      <c r="F87" s="20">
+        <v>0.89253540895750905</v>
+      </c>
+      <c r="G87" s="20">
+        <v>0.93603468579381199</v>
+      </c>
+      <c r="H87" s="20">
+        <v>0.96423077135153301</v>
+      </c>
+      <c r="I87" s="20">
+        <v>0.97401078335264202</v>
+      </c>
+      <c r="J87" s="19">
+        <v>374</v>
+      </c>
+      <c r="K87" s="19">
+        <v>441</v>
+      </c>
+      <c r="L87" s="19">
+        <v>72</v>
+      </c>
+      <c r="M87" s="20">
+        <v>0.83856502242152398</v>
+      </c>
+      <c r="N87" s="20">
+        <v>0.45889570552147202</v>
+      </c>
+      <c r="O87" s="20">
+        <v>0.59318001586042801</v>
+      </c>
+      <c r="P87" s="20">
+        <v>0.71950750288572496</v>
+      </c>
+      <c r="Q87" s="20">
+        <v>0.97401078335264202</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88" s="19">
+        <v>35060</v>
+      </c>
+      <c r="C88" s="19">
+        <v>4938</v>
+      </c>
+      <c r="D88" s="19">
+        <v>483</v>
+      </c>
+      <c r="E88" s="20">
+        <v>0.986410826323045</v>
+      </c>
+      <c r="F88" s="20">
+        <v>0.87654382719135904</v>
+      </c>
+      <c r="G88" s="20">
+        <v>0.92823764578176005</v>
+      </c>
+      <c r="H88" s="20">
+        <v>0.96228797277268396</v>
+      </c>
+      <c r="I88" s="20">
+        <v>0.974200091695958</v>
+      </c>
+      <c r="J88" s="19">
+        <v>387</v>
+      </c>
+      <c r="K88" s="19">
+        <v>982</v>
+      </c>
+      <c r="L88" s="19">
+        <v>59</v>
+      </c>
+      <c r="M88" s="20">
+        <v>0.867713004484304</v>
+      </c>
+      <c r="N88" s="20">
+        <v>0.282688093498904</v>
+      </c>
+      <c r="O88" s="20">
+        <v>0.42644628099173498</v>
+      </c>
+      <c r="P88" s="20">
+        <v>0.613701236917221</v>
+      </c>
+      <c r="Q88" s="20">
+        <v>0.974200091695958</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B89" s="19">
+        <v>34686</v>
+      </c>
+      <c r="C89" s="19">
+        <v>3152</v>
+      </c>
+      <c r="D89" s="19">
+        <v>857</v>
+      </c>
+      <c r="E89" s="20">
+        <v>0.97588836057732797</v>
+      </c>
+      <c r="F89" s="20">
+        <v>0.91669749986785698</v>
+      </c>
+      <c r="G89" s="20">
+        <v>0.94536732941769597</v>
+      </c>
+      <c r="H89" s="20">
+        <v>0.96344647519582205</v>
+      </c>
+      <c r="I89" s="20">
+        <v>0.96962750716332302</v>
+      </c>
+      <c r="J89" s="19">
+        <v>357</v>
+      </c>
+      <c r="K89" s="19">
+        <v>221</v>
+      </c>
+      <c r="L89" s="19">
+        <v>89</v>
+      </c>
+      <c r="M89" s="20">
+        <v>0.80044843049327297</v>
+      </c>
+      <c r="N89" s="20">
+        <v>0.61764705882352899</v>
+      </c>
+      <c r="O89" s="20">
+        <v>0.697265625</v>
+      </c>
+      <c r="P89" s="20">
+        <v>0.75571549534292903</v>
+      </c>
+      <c r="Q89" s="20">
+        <v>0.96962750716332302</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>43</v>
+      </c>
+      <c r="B90">
+        <v>34807</v>
+      </c>
+      <c r="C90">
+        <v>3307</v>
+      </c>
+      <c r="D90">
+        <v>736</v>
+      </c>
+      <c r="E90" s="1">
+        <v>0.97929268773035405</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0.91323398226373498</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0.94511044435695102</v>
+      </c>
+      <c r="H90" s="2">
+        <v>0.96532731326891696</v>
+      </c>
+      <c r="I90" s="1">
+        <v>0.97225985402275406</v>
+      </c>
+      <c r="J90">
+        <v>365</v>
+      </c>
+      <c r="K90">
+        <v>297</v>
+      </c>
+      <c r="L90">
+        <v>81</v>
+      </c>
+      <c r="M90" s="1">
+        <v>0.81838565022421506</v>
+      </c>
+      <c r="N90" s="1">
+        <v>0.55135951661631399</v>
+      </c>
+      <c r="O90" s="2">
+        <v>0.65884476534295999</v>
+      </c>
+      <c r="P90" s="2">
+        <v>0.746116107931316</v>
+      </c>
+      <c r="Q90" s="1">
+        <v>0.97225985402275406</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>44</v>
+      </c>
+      <c r="B91">
+        <v>34821</v>
+      </c>
+      <c r="C91">
+        <v>3366</v>
+      </c>
+      <c r="D91">
+        <v>722</v>
+      </c>
+      <c r="E91" s="1">
+        <v>0.97968657682243998</v>
+      </c>
+      <c r="F91" s="1">
+        <v>0.91185481970304005</v>
+      </c>
+      <c r="G91" s="1">
+        <v>0.94455445544554395</v>
+      </c>
+      <c r="H91" s="1">
+        <v>0.96532471348809801</v>
+      </c>
+      <c r="I91" s="1">
+        <v>0.97245262152515899</v>
+      </c>
+      <c r="J91">
+        <v>367</v>
+      </c>
+      <c r="K91">
+        <v>353</v>
+      </c>
+      <c r="L91">
+        <v>79</v>
+      </c>
+      <c r="M91" s="1">
+        <v>0.82286995515695005</v>
+      </c>
+      <c r="N91" s="1">
+        <v>0.50972222222222197</v>
+      </c>
+      <c r="O91" s="1">
+        <v>0.62950257289879896</v>
+      </c>
+      <c r="P91" s="1">
+        <v>0.73282747603833798</v>
+      </c>
+      <c r="Q91" s="1">
+        <v>0.97245262152515899</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>45</v>
+      </c>
+      <c r="B92">
+        <v>34827</v>
+      </c>
+      <c r="C92">
+        <v>3404</v>
+      </c>
+      <c r="D92">
+        <v>716</v>
+      </c>
+      <c r="E92" s="1">
+        <v>0.97985538643333403</v>
+      </c>
+      <c r="F92" s="1">
+        <v>0.91096230807459899</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0.94415376690975095</v>
+      </c>
+      <c r="H92" s="1">
+        <v>0.96525556670343604</v>
+      </c>
+      <c r="I92" s="1">
+        <v>0.97250068413204505</v>
+      </c>
+      <c r="J92">
+        <v>370</v>
+      </c>
+      <c r="K92">
+        <v>382</v>
+      </c>
+      <c r="L92">
+        <v>76</v>
+      </c>
+      <c r="M92" s="1">
+        <v>0.82959641255605299</v>
+      </c>
+      <c r="N92" s="1">
+        <v>0.49202127659574402</v>
+      </c>
+      <c r="O92" s="1">
+        <v>0.61769616026711105</v>
+      </c>
+      <c r="P92" s="1">
+        <v>0.72949526813880095</v>
+      </c>
+      <c r="Q92" s="1">
+        <v>0.97250068413204505</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>87</v>
+      </c>
+      <c r="B93">
+        <v>34906</v>
+      </c>
+      <c r="C93">
+        <v>3886</v>
+      </c>
+      <c r="D93">
+        <v>637</v>
+      </c>
+      <c r="E93" s="1">
+        <v>0.98207804631010298</v>
+      </c>
+      <c r="F93" s="1">
+        <v>0.89982470612497401</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0.93915383063159996</v>
+      </c>
+      <c r="H93" s="1">
+        <v>0.96444596715368802</v>
+      </c>
+      <c r="I93" s="1">
+        <v>0.97318214894097499</v>
+      </c>
+      <c r="J93">
+        <v>382</v>
+      </c>
+      <c r="K93">
+        <v>852</v>
+      </c>
+      <c r="L93">
+        <v>64</v>
+      </c>
+      <c r="M93" s="1">
+        <v>0.85650224215246595</v>
+      </c>
+      <c r="N93" s="1">
+        <v>0.30956239870340302</v>
+      </c>
+      <c r="O93" s="1">
+        <v>0.45476190476190398</v>
+      </c>
+      <c r="P93" s="1">
+        <v>0.63286944996686501</v>
+      </c>
+      <c r="Q93" s="1">
+        <v>0.97318214894097499</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>46</v>
+      </c>
+      <c r="B94" s="19">
+        <v>33303</v>
+      </c>
+      <c r="C94" s="19">
+        <v>2509</v>
+      </c>
+      <c r="D94" s="19">
+        <v>2240</v>
+      </c>
+      <c r="E94" s="20">
+        <v>0.93697774526629696</v>
+      </c>
+      <c r="F94" s="20">
+        <v>0.92993968502178004</v>
+      </c>
+      <c r="G94" s="20">
+        <v>0.93344544881227598</v>
+      </c>
+      <c r="H94" s="20">
+        <v>0.93556162351672001</v>
+      </c>
+      <c r="I94" s="20">
+        <v>0.93626914891523405</v>
+      </c>
+      <c r="J94" s="19">
+        <v>321</v>
+      </c>
+      <c r="K94" s="19">
+        <v>172</v>
+      </c>
+      <c r="L94" s="19">
+        <v>125</v>
+      </c>
+      <c r="M94" s="20">
+        <v>0.71973094170403495</v>
+      </c>
+      <c r="N94" s="20">
+        <v>0.651115618661257</v>
+      </c>
+      <c r="O94" s="20">
+        <v>0.68370607028753905</v>
+      </c>
+      <c r="P94" s="20">
+        <v>0.70487483530961703</v>
+      </c>
+      <c r="Q94" s="20">
+        <v>0.93626914891523405</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>47</v>
+      </c>
+      <c r="B95">
+        <v>33419</v>
+      </c>
+      <c r="C95">
+        <v>2630</v>
+      </c>
+      <c r="D95">
+        <v>2124</v>
+      </c>
+      <c r="E95" s="1">
+        <v>0.94024139774357796</v>
+      </c>
+      <c r="F95" s="1">
+        <v>0.92704374601237205</v>
+      </c>
+      <c r="G95" s="2">
+        <v>0.93359593250642503</v>
+      </c>
+      <c r="H95" s="2">
+        <v>0.93757189107905303</v>
+      </c>
+      <c r="I95" s="1">
+        <v>0.93890474692079395</v>
+      </c>
+      <c r="J95">
+        <v>328</v>
+      </c>
+      <c r="K95">
+        <v>225</v>
+      </c>
+      <c r="L95">
+        <v>118</v>
+      </c>
+      <c r="M95" s="1">
+        <v>0.73542600896860899</v>
+      </c>
+      <c r="N95" s="1">
+        <v>0.59312839059674505</v>
+      </c>
+      <c r="O95" s="2">
+        <v>0.65665665665665596</v>
+      </c>
+      <c r="P95" s="2">
+        <v>0.70175438596491202</v>
+      </c>
+      <c r="Q95" s="1">
+        <v>0.93890474692079395</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>48</v>
+      </c>
+      <c r="B96">
+        <v>33432</v>
+      </c>
+      <c r="C96">
+        <v>2672</v>
+      </c>
+      <c r="D96">
+        <v>2111</v>
+      </c>
+      <c r="E96" s="1">
+        <v>0.94060715190051403</v>
+      </c>
+      <c r="F96" s="1">
+        <v>0.92599157988034497</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0.93324214551900198</v>
+      </c>
+      <c r="H96" s="1">
+        <v>0.937647243599811</v>
+      </c>
+      <c r="I96" s="1">
+        <v>0.93912486551626295</v>
+      </c>
+      <c r="J96">
+        <v>330</v>
+      </c>
+      <c r="K96">
+        <v>264</v>
+      </c>
+      <c r="L96">
+        <v>116</v>
+      </c>
+      <c r="M96" s="1">
+        <v>0.73991031390134498</v>
+      </c>
+      <c r="N96" s="1">
+        <v>0.55555555555555503</v>
+      </c>
+      <c r="O96" s="1">
+        <v>0.63461538461538403</v>
+      </c>
+      <c r="P96" s="1">
+        <v>0.69386038687972995</v>
+      </c>
+      <c r="Q96" s="1">
+        <v>0.93912486551626295</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>49</v>
+      </c>
+      <c r="B97">
+        <v>33438</v>
+      </c>
+      <c r="C97">
+        <v>2692</v>
+      </c>
+      <c r="D97">
+        <v>2105</v>
+      </c>
+      <c r="E97" s="1">
+        <v>0.94077596151140797</v>
+      </c>
+      <c r="F97" s="1">
+        <v>0.92549128148353099</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0.93307103093215005</v>
+      </c>
+      <c r="H97" s="1">
+        <v>0.93767876972776498</v>
+      </c>
+      <c r="I97" s="1">
+        <v>0.93922481229828902</v>
+      </c>
+      <c r="J97">
+        <v>333</v>
+      </c>
+      <c r="K97">
+        <v>296</v>
+      </c>
+      <c r="L97">
+        <v>113</v>
+      </c>
+      <c r="M97" s="1">
+        <v>0.74663677130044803</v>
+      </c>
+      <c r="N97" s="1">
+        <v>0.52941176470588203</v>
+      </c>
+      <c r="O97" s="1">
+        <v>0.61953488372093002</v>
+      </c>
+      <c r="P97" s="1">
+        <v>0.69001243265644396</v>
+      </c>
+      <c r="Q97" s="1">
+        <v>0.93922481229828902</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>88</v>
+      </c>
+      <c r="B98">
+        <v>33515</v>
+      </c>
+      <c r="C98">
+        <v>3032</v>
+      </c>
+      <c r="D98">
+        <v>2028</v>
+      </c>
+      <c r="E98" s="1">
+        <v>0.94294235151787897</v>
+      </c>
+      <c r="F98" s="1">
+        <v>0.91703833419979697</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0.92980995977250602</v>
+      </c>
+      <c r="H98" s="1">
+        <v>0.937645130064514</v>
+      </c>
+      <c r="I98" s="1">
+        <v>0.94028628020895799</v>
+      </c>
+      <c r="J98">
+        <v>344</v>
+      </c>
+      <c r="K98">
+        <v>667</v>
+      </c>
+      <c r="L98">
+        <v>102</v>
+      </c>
+      <c r="M98" s="1">
+        <v>0.77130044843049295</v>
+      </c>
+      <c r="N98" s="1">
+        <v>0.34025717111770498</v>
+      </c>
+      <c r="O98" s="1">
+        <v>0.47220315717227102</v>
+      </c>
+      <c r="P98" s="1">
+        <v>0.61538461538461497</v>
+      </c>
+      <c r="Q98" s="1">
+        <v>0.94028628020895799</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B99" s="19">
+        <v>22438</v>
+      </c>
+      <c r="C99" s="19">
+        <v>1038</v>
+      </c>
+      <c r="D99" s="19">
+        <v>13105</v>
+      </c>
+      <c r="E99" s="20">
+        <v>0.631291674872689</v>
+      </c>
+      <c r="F99" s="20">
+        <v>0.95578463111262502</v>
+      </c>
+      <c r="G99" s="20">
+        <v>0.76036530608787001</v>
+      </c>
+      <c r="H99" s="20">
+        <v>0.67727953250265605</v>
+      </c>
+      <c r="I99" s="20">
+        <v>0.65347751504967</v>
+      </c>
+      <c r="J99" s="19">
+        <v>189</v>
+      </c>
+      <c r="K99" s="19">
+        <v>100</v>
+      </c>
+      <c r="L99" s="19">
+        <v>257</v>
+      </c>
+      <c r="M99" s="20">
+        <v>0.42376681614349698</v>
+      </c>
+      <c r="N99" s="20">
+        <v>0.65397923875432495</v>
+      </c>
+      <c r="O99" s="20">
+        <v>0.51428571428571401</v>
+      </c>
+      <c r="P99" s="20">
+        <v>0.45586107091172201</v>
+      </c>
+      <c r="Q99" s="20">
+        <v>0.65347751504967</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>51</v>
+      </c>
+      <c r="B100">
+        <v>22515</v>
+      </c>
+      <c r="C100">
+        <v>1126</v>
+      </c>
+      <c r="D100">
+        <v>13028</v>
+      </c>
+      <c r="E100" s="1">
+        <v>0.63345806487916001</v>
+      </c>
+      <c r="F100" s="1">
+        <v>0.9523708810964</v>
+      </c>
+      <c r="G100" s="1">
+        <v>0.76084752635847497</v>
+      </c>
+      <c r="H100" s="1">
+        <v>0.67892746648332702</v>
+      </c>
+      <c r="I100" s="1">
+        <v>0.65540509070585196</v>
+      </c>
+      <c r="J100">
+        <v>191</v>
+      </c>
+      <c r="K100">
+        <v>147</v>
+      </c>
+      <c r="L100">
+        <v>255</v>
+      </c>
+      <c r="M100" s="1">
+        <v>0.42825112107623298</v>
+      </c>
+      <c r="N100" s="1">
+        <v>0.56508875739644904</v>
+      </c>
+      <c r="O100" s="1">
+        <v>0.48724489795918302</v>
+      </c>
+      <c r="P100" s="1">
+        <v>0.45004712535343999</v>
+      </c>
+      <c r="Q100" s="1">
+        <v>0.65540509070585196</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>52</v>
+      </c>
+      <c r="B101">
+        <v>22524</v>
+      </c>
+      <c r="C101">
+        <v>1150</v>
+      </c>
+      <c r="D101">
+        <v>13019</v>
+      </c>
+      <c r="E101" s="1">
+        <v>0.63371127929550097</v>
+      </c>
+      <c r="F101" s="1">
+        <v>0.95142350257666597</v>
+      </c>
+      <c r="G101" s="2">
+        <v>0.76072749379401094</v>
+      </c>
+      <c r="H101" s="1">
+        <v>0.67906370970659502</v>
+      </c>
+      <c r="I101" s="1">
+        <v>0.65560409941757003</v>
+      </c>
+      <c r="J101">
+        <v>191</v>
+      </c>
+      <c r="K101">
+        <v>175</v>
+      </c>
+      <c r="L101">
+        <v>255</v>
+      </c>
+      <c r="M101" s="1">
+        <v>0.42825112107623298</v>
+      </c>
+      <c r="N101" s="1">
+        <v>0.52185792349726701</v>
+      </c>
+      <c r="O101" s="1">
+        <v>0.47044334975369401</v>
+      </c>
+      <c r="P101" s="1">
+        <v>0.44418604651162702</v>
+      </c>
+      <c r="Q101" s="1">
+        <v>0.65560409941757003</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>53</v>
+      </c>
+      <c r="B102">
+        <v>22526</v>
+      </c>
+      <c r="C102">
+        <v>1166</v>
+      </c>
+      <c r="D102">
+        <v>13017</v>
+      </c>
+      <c r="E102" s="1">
+        <v>0.63376754916579903</v>
+      </c>
+      <c r="F102" s="1">
+        <v>0.95078507513084498</v>
+      </c>
+      <c r="G102" s="1">
+        <v>0.76056385582847896</v>
+      </c>
+      <c r="H102" s="1">
+        <v>0.67905030627502005</v>
+      </c>
+      <c r="I102" s="1">
+        <v>0.65562796329228401</v>
+      </c>
+      <c r="J102">
+        <v>192</v>
+      </c>
+      <c r="K102">
+        <v>200</v>
+      </c>
+      <c r="L102">
+        <v>254</v>
+      </c>
+      <c r="M102" s="1">
+        <v>0.43049327354259997</v>
+      </c>
+      <c r="N102" s="1">
+        <v>0.48979591836734598</v>
+      </c>
+      <c r="O102" s="1">
+        <v>0.45823389021479699</v>
+      </c>
+      <c r="P102" s="1">
+        <v>0.441176470588235</v>
+      </c>
+      <c r="Q102" s="1">
+        <v>0.65562796329228401</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>89</v>
+      </c>
+      <c r="B103">
+        <v>22572</v>
+      </c>
+      <c r="C103">
+        <v>1422</v>
+      </c>
+      <c r="D103">
+        <v>12971</v>
+      </c>
+      <c r="E103" s="1">
+        <v>0.63506175618265204</v>
+      </c>
+      <c r="F103" s="1">
+        <v>0.940735183795949</v>
+      </c>
+      <c r="G103" s="1">
+        <v>0.75825117154038602</v>
+      </c>
+      <c r="H103" s="1">
+        <v>0.67920031775453404</v>
+      </c>
+      <c r="I103" s="1">
+        <v>0.65638985579313702</v>
+      </c>
+      <c r="J103">
+        <v>200</v>
+      </c>
+      <c r="K103">
+        <v>483</v>
+      </c>
+      <c r="L103">
+        <v>246</v>
+      </c>
+      <c r="M103" s="1">
+        <v>0.44843049327354201</v>
+      </c>
+      <c r="N103" s="1">
+        <v>0.29282576866764198</v>
+      </c>
+      <c r="O103" s="1">
+        <v>0.35429583702391498</v>
+      </c>
+      <c r="P103" s="1">
+        <v>0.40535062829347301</v>
+      </c>
+      <c r="Q103" s="1">
+        <v>0.65638985579313702</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
         <v>31</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B108" t="s">
         <v>32</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C108" t="s">
         <v>32</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D108" t="s">
         <v>32</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E108" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="F108" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="G108" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H79" s="1" t="s">
+      <c r="H108" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I79" s="1" t="s">
+      <c r="I108" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J79" t="s">
+      <c r="J108" t="s">
         <v>33</v>
       </c>
-      <c r="K79" t="s">
+      <c r="K108" t="s">
         <v>33</v>
       </c>
-      <c r="L79" t="s">
+      <c r="L108" t="s">
         <v>33</v>
       </c>
-      <c r="M79" s="1" t="s">
+      <c r="M108" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N79" s="1" t="s">
+      <c r="N108" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O79" s="1" t="s">
+      <c r="O108" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P79" s="1" t="s">
+      <c r="P108" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q79" s="1" t="s">
+      <c r="Q108" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A80" s="8"/>
-      <c r="B80" s="8" t="s">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A109" s="8"/>
+      <c r="B109" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C109" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D80" s="8" t="s">
+      <c r="D109" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E80" s="9" t="s">
+      <c r="E109" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F80" s="9" t="s">
+      <c r="F109" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G80" s="16" t="s">
+      <c r="G109" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H80" s="16" t="s">
+      <c r="H109" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I80" s="9" t="s">
+      <c r="I109" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J80" s="8" t="s">
+      <c r="J109" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="K80" s="8" t="s">
+      <c r="K109" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="L80" s="8" t="s">
+      <c r="L109" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M80" s="9" t="s">
+      <c r="M109" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="N80" s="9" t="s">
+      <c r="N109" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="O80" s="16" t="s">
+      <c r="O109" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="P80" s="16" t="s">
+      <c r="P109" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="Q80" s="9" t="s">
+      <c r="Q109" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A81" s="5" t="s">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A110" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B81" s="5">
+      <c r="B110" s="5">
         <v>1135</v>
       </c>
-      <c r="C81" s="5">
+      <c r="C110" s="5">
         <v>160</v>
       </c>
-      <c r="D81" s="5">
+      <c r="D110" s="5">
         <v>128</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E110" s="3">
         <v>0.89865399841646798</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F110" s="3">
         <v>0.87644787644787603</v>
       </c>
-      <c r="G81" s="3">
+      <c r="G110" s="3">
         <v>0.88741204065676305</v>
       </c>
-      <c r="H81" s="3">
+      <c r="H110" s="3">
         <v>0.89412320781471499</v>
       </c>
-      <c r="I81" s="3">
+      <c r="I110" s="3">
         <v>0.89638287790238502</v>
       </c>
-      <c r="J81" s="5">
+      <c r="J110" s="5">
         <v>203</v>
       </c>
-      <c r="K81" s="5">
+      <c r="K110" s="5">
         <v>81</v>
       </c>
-      <c r="L81" s="5">
+      <c r="L110" s="5">
         <v>144</v>
       </c>
-      <c r="M81" s="3">
+      <c r="M110" s="3">
         <v>0.58501440922190195</v>
       </c>
-      <c r="N81" s="3">
+      <c r="N110" s="3">
         <v>0.71478873239436602</v>
       </c>
-      <c r="O81" s="3">
+      <c r="O110" s="3">
         <v>0.64342313787638605</v>
       </c>
-      <c r="P81" s="3">
+      <c r="P110" s="3">
         <v>0.60705741626794196</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="Q110" s="3">
         <v>0.89638287790238502</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A82" s="5" t="s">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A111" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B82" s="5">
+      <c r="B111" s="5">
         <v>1152</v>
       </c>
-      <c r="C82" s="5">
+      <c r="C111" s="5">
         <v>197</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D111" s="5">
         <v>111</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E111" s="3">
         <v>0.91211401425178096</v>
       </c>
-      <c r="F82" s="3">
+      <c r="F111" s="3">
         <v>0.85396590066716005</v>
       </c>
-      <c r="G82" s="2">
+      <c r="G111" s="2">
         <v>0.88208269525267902</v>
       </c>
-      <c r="H82" s="2">
+      <c r="H111" s="2">
         <v>0.89985939696922301</v>
       </c>
-      <c r="I82" s="3">
+      <c r="I111" s="3">
         <v>0.90594526580685697</v>
       </c>
-      <c r="J82" s="5">
+      <c r="J111" s="5">
         <v>235</v>
       </c>
-      <c r="K82" s="5">
+      <c r="K111" s="5">
         <v>110</v>
       </c>
-      <c r="L82" s="5">
+      <c r="L111" s="5">
         <v>112</v>
       </c>
-      <c r="M82" s="3">
+      <c r="M111" s="3">
         <v>0.67723342939481201</v>
       </c>
-      <c r="N82" s="3">
+      <c r="N111" s="3">
         <v>0.68115942028985499</v>
       </c>
-      <c r="O82" s="3">
+      <c r="O111" s="3">
         <v>0.67919075144508601</v>
       </c>
-      <c r="P82" s="3">
+      <c r="P111" s="3">
         <v>0.67801500288517003</v>
       </c>
-      <c r="Q82" s="3">
+      <c r="Q111" s="3">
         <v>0.90594526580685697</v>
       </c>
     </row>
-    <row r="83" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="17" t="s">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A112" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="B83" s="17">
+      <c r="B112" s="17">
         <v>1155</v>
       </c>
-      <c r="C83" s="17">
+      <c r="C112" s="17">
         <v>213</v>
       </c>
-      <c r="D83" s="17">
+      <c r="D112" s="17">
         <v>108</v>
       </c>
-      <c r="E83" s="18">
+      <c r="E112" s="18">
         <v>0.91448931116389498</v>
       </c>
-      <c r="F83" s="18">
+      <c r="F112" s="18">
         <v>0.84429824561403499</v>
       </c>
-      <c r="G83" s="18">
+      <c r="G112" s="18">
         <v>0.87799315849486803</v>
       </c>
-      <c r="H83" s="18">
+      <c r="H112" s="18">
         <v>0.89953271028037396</v>
       </c>
-      <c r="I83" s="18">
+      <c r="I112" s="18">
         <v>0.90694935217903405</v>
       </c>
-      <c r="J83" s="17">
+      <c r="J112" s="17">
         <v>249</v>
       </c>
-      <c r="K83" s="17">
+      <c r="K112" s="17">
         <v>129</v>
       </c>
-      <c r="L83" s="17">
+      <c r="L112" s="17">
         <v>98</v>
       </c>
-      <c r="M83" s="18">
+      <c r="M112" s="18">
         <v>0.71757925072046103</v>
       </c>
-      <c r="N83" s="18">
+      <c r="N112" s="18">
         <v>0.65873015873015806</v>
       </c>
-      <c r="O83" s="18">
+      <c r="O112" s="18">
         <v>0.68689655172413699</v>
       </c>
-      <c r="P83" s="18">
+      <c r="P112" s="18">
         <v>0.70498301245753103</v>
       </c>
-      <c r="Q83" s="18">
+      <c r="Q112" s="18">
         <v>0.90694935217903405</v>
       </c>
     </row>
-    <row r="84" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="17" t="s">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A113" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="B84" s="17">
+      <c r="B113" s="17">
         <v>1181</v>
       </c>
-      <c r="C84" s="17">
+      <c r="C113" s="17">
         <v>481</v>
       </c>
-      <c r="D84" s="17">
+      <c r="D113" s="17">
         <v>82</v>
       </c>
-      <c r="E84" s="18">
+      <c r="E113" s="18">
         <v>0.93507521773555002</v>
       </c>
-      <c r="F84" s="18">
+      <c r="F113" s="18">
         <v>0.71058965102286398</v>
       </c>
-      <c r="G84" s="18">
+      <c r="G113" s="18">
         <v>0.80752136752136705</v>
       </c>
-      <c r="H84" s="18">
+      <c r="H113" s="18">
         <v>0.87950551087280304</v>
       </c>
-      <c r="I84" s="18">
+      <c r="I113" s="18">
         <v>0.90643948115741801</v>
       </c>
-      <c r="J84" s="17">
+      <c r="J113" s="17">
         <v>309</v>
       </c>
-      <c r="K84" s="17">
+      <c r="K113" s="17">
         <v>378</v>
       </c>
-      <c r="L84" s="17">
+      <c r="L113" s="17">
         <v>38</v>
       </c>
-      <c r="M84" s="18">
+      <c r="M113" s="18">
         <v>0.890489913544668</v>
       </c>
-      <c r="N84" s="18">
+      <c r="N113" s="18">
         <v>0.449781659388646</v>
       </c>
-      <c r="O84" s="18">
+      <c r="O113" s="18">
         <v>0.59767891682785301</v>
       </c>
-      <c r="P84" s="18">
+      <c r="P113" s="18">
         <v>0.74457831325301205</v>
       </c>
-      <c r="Q84" s="18">
+      <c r="Q113" s="18">
         <v>0.90643948115741801</v>
       </c>
-      <c r="R84" s="19"/>
-      <c r="S84" s="19"/>
-      <c r="T84" s="19"/>
-      <c r="U84" s="19"/>
-      <c r="V84" s="19"/>
-      <c r="W84" s="19"/>
-      <c r="X84" s="19"/>
-    </row>
-    <row r="87" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="88" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="89" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="19" t="s">
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A114" s="19"/>
+      <c r="B114" s="19"/>
+      <c r="C114" s="19"/>
+      <c r="D114" s="19"/>
+      <c r="E114" s="20"/>
+      <c r="F114" s="20"/>
+      <c r="G114" s="20"/>
+      <c r="H114" s="20"/>
+      <c r="I114" s="20"/>
+      <c r="J114" s="19"/>
+      <c r="K114" s="19"/>
+      <c r="L114" s="19"/>
+      <c r="M114" s="20"/>
+      <c r="N114" s="20"/>
+      <c r="O114" s="20"/>
+      <c r="P114" s="20"/>
+      <c r="Q114" s="20"/>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>90</v>
+      </c>
+      <c r="B117" t="s">
+        <v>32</v>
+      </c>
+      <c r="C117" t="s">
+        <v>32</v>
+      </c>
+      <c r="D117" t="s">
+        <v>32</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
+        <v>0</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1</v>
+      </c>
+      <c r="D118" t="s">
+        <v>2</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>34</v>
+      </c>
+      <c r="B119">
+        <v>34884</v>
+      </c>
+      <c r="C119">
+        <v>3689</v>
+      </c>
+      <c r="D119">
+        <v>659</v>
+      </c>
+      <c r="E119" s="1">
+        <v>0.98145907773682495</v>
+      </c>
+      <c r="F119" s="1">
+        <v>0.90436315557514302</v>
+      </c>
+      <c r="G119" s="1">
+        <v>0.94133520427438</v>
+      </c>
+      <c r="H119" s="1">
+        <v>0.96500594760574199</v>
+      </c>
+      <c r="I119" s="1">
+        <v>0.97316297494838999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>35</v>
+      </c>
+      <c r="B120">
+        <v>35006</v>
+      </c>
+      <c r="C120">
+        <v>3894</v>
+      </c>
+      <c r="D120">
+        <v>537</v>
+      </c>
+      <c r="E120" s="1">
+        <v>0.984891539825</v>
+      </c>
+      <c r="F120" s="1">
+        <v>0.89989717223650301</v>
+      </c>
+      <c r="G120" s="1">
+        <v>0.94047794957215503</v>
+      </c>
+      <c r="H120" s="1">
+        <v>0.96663205796589102</v>
+      </c>
+      <c r="I120" s="1">
+        <v>0.97567637623436698</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>36</v>
+      </c>
+      <c r="B121">
+        <v>35020</v>
+      </c>
+      <c r="C121">
+        <v>3997</v>
+      </c>
+      <c r="D121">
+        <v>523</v>
+      </c>
+      <c r="E121" s="1">
+        <v>0.98528542891708604</v>
+      </c>
+      <c r="F121" s="1">
+        <v>0.89755747494681803</v>
+      </c>
+      <c r="G121" s="1">
+        <v>0.939377682403433</v>
+      </c>
+      <c r="H121" s="1">
+        <v>0.96639420715385604</v>
+      </c>
+      <c r="I121" s="1">
+        <v>0.97574838954149301</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>37</v>
+      </c>
+      <c r="B122">
+        <v>35026</v>
+      </c>
+      <c r="C122">
+        <v>4051</v>
+      </c>
+      <c r="D122">
+        <v>517</v>
+      </c>
+      <c r="E122" s="1">
+        <v>0.98545423852797998</v>
+      </c>
+      <c r="F122" s="1">
+        <v>0.89633288123448496</v>
+      </c>
+      <c r="G122" s="1">
+        <v>0.93878316805146</v>
+      </c>
+      <c r="H122" s="1">
+        <v>0.96623981373690304</v>
+      </c>
+      <c r="I122" s="1">
+        <v>0.97575244314192999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A123" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="E89" s="20"/>
-      <c r="F89" s="20"/>
-      <c r="G89" s="20"/>
-      <c r="H89" s="20"/>
-      <c r="I89" s="20"/>
-      <c r="M89" s="20"/>
-      <c r="N89" s="20"/>
-      <c r="O89" s="20"/>
-      <c r="P89" s="20"/>
-      <c r="Q89" s="20"/>
-    </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="H90" s="2"/>
-      <c r="O90" s="2"/>
-      <c r="P90" s="2"/>
-    </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B94" s="19"/>
-      <c r="C94" s="19"/>
-      <c r="D94" s="19"/>
-      <c r="E94" s="20"/>
-      <c r="F94" s="20"/>
-      <c r="G94" s="20"/>
-      <c r="H94" s="20"/>
-      <c r="I94" s="20"/>
-      <c r="J94" s="19"/>
-      <c r="K94" s="19"/>
-      <c r="L94" s="19"/>
-      <c r="M94" s="20"/>
-      <c r="N94" s="20"/>
-      <c r="O94" s="20"/>
-      <c r="P94" s="20"/>
-      <c r="Q94" s="20"/>
-    </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
-      <c r="O95" s="2"/>
-      <c r="P95" s="2"/>
-    </row>
-    <row r="99" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B99" s="8"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="9"/>
-      <c r="I99" s="9"/>
-      <c r="J99" s="8"/>
-      <c r="K99" s="8"/>
-      <c r="L99" s="8"/>
-      <c r="M99" s="9"/>
-      <c r="N99" s="9"/>
-      <c r="O99" s="9"/>
-      <c r="P99" s="9"/>
-      <c r="Q99" s="9"/>
-    </row>
-    <row r="101" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="G101" s="2"/>
-    </row>
-    <row r="104" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="H104" s="2"/>
+      <c r="B123" s="19">
+        <v>35113</v>
+      </c>
+      <c r="C123" s="19">
+        <v>4869</v>
+      </c>
+      <c r="D123" s="19">
+        <v>430</v>
+      </c>
+      <c r="E123" s="20">
+        <v>0.98790197788594003</v>
+      </c>
+      <c r="F123" s="20">
+        <v>0.87822019908959004</v>
+      </c>
+      <c r="G123" s="20">
+        <v>0.92983780205230004</v>
+      </c>
+      <c r="H123" s="20">
+        <v>0.96382731095666296</v>
+      </c>
+      <c r="I123" s="20">
+        <v>0.97571616338167499</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
+        <v>33</v>
+      </c>
+      <c r="C124" t="s">
+        <v>33</v>
+      </c>
+      <c r="D124" t="s">
+        <v>33</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B125" t="s">
+        <v>0</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1</v>
+      </c>
+      <c r="D125" t="s">
+        <v>2</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>34</v>
+      </c>
+      <c r="B126">
+        <v>361</v>
+      </c>
+      <c r="C126">
+        <v>251</v>
+      </c>
+      <c r="D126">
+        <v>85</v>
+      </c>
+      <c r="E126" s="1">
+        <v>0.80941704035874396</v>
+      </c>
+      <c r="F126" s="1">
+        <v>0.58986928104575098</v>
+      </c>
+      <c r="G126" s="1">
+        <v>0.68241965973534902</v>
+      </c>
+      <c r="H126" s="1">
+        <v>0.753338898163606</v>
+      </c>
+      <c r="I126" s="1">
+        <v>0.97316297494838999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>35</v>
+      </c>
+      <c r="B127">
+        <v>369</v>
+      </c>
+      <c r="C127">
+        <v>340</v>
+      </c>
+      <c r="D127">
+        <v>77</v>
+      </c>
+      <c r="E127" s="1">
+        <v>0.82735426008968604</v>
+      </c>
+      <c r="F127" s="1">
+        <v>0.52045133991537296</v>
+      </c>
+      <c r="G127" s="1">
+        <v>0.63896103896103795</v>
+      </c>
+      <c r="H127" s="1">
+        <v>0.74007220216606495</v>
+      </c>
+      <c r="I127" s="1">
+        <v>0.97567637623436698</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>36</v>
+      </c>
+      <c r="B128">
+        <v>372</v>
+      </c>
+      <c r="C128">
+        <v>409</v>
+      </c>
+      <c r="D128">
+        <v>74</v>
+      </c>
+      <c r="E128" s="1">
+        <v>0.83408071748878898</v>
+      </c>
+      <c r="F128" s="1">
+        <v>0.476312419974391</v>
+      </c>
+      <c r="G128" s="1">
+        <v>0.60635696821515805</v>
+      </c>
+      <c r="H128" s="1">
+        <v>0.72514619883040898</v>
+      </c>
+      <c r="I128" s="1">
+        <v>0.97574838954149301</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>37</v>
+      </c>
+      <c r="B129">
+        <v>375</v>
+      </c>
+      <c r="C129">
+        <v>458</v>
+      </c>
+      <c r="D129">
+        <v>71</v>
+      </c>
+      <c r="E129" s="1">
+        <v>0.84080717488789203</v>
+      </c>
+      <c r="F129" s="1">
+        <v>0.450180072028811</v>
+      </c>
+      <c r="G129" s="1">
+        <v>0.58639562157935798</v>
+      </c>
+      <c r="H129" s="1">
+        <v>0.71646923958731301</v>
+      </c>
+      <c r="I129" s="1">
+        <v>0.97575244314192999</v>
+      </c>
+      <c r="J129" s="19"/>
+      <c r="K129" s="19"/>
+      <c r="L129" s="19"/>
+      <c r="M129" s="20"/>
+      <c r="N129" s="20"/>
+      <c r="O129" s="20"/>
+      <c r="P129" s="20"/>
+      <c r="Q129" s="20"/>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A130" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B130" s="19">
+        <v>390</v>
+      </c>
+      <c r="C130" s="19">
+        <v>1093</v>
+      </c>
+      <c r="D130" s="19">
+        <v>56</v>
+      </c>
+      <c r="E130" s="20">
+        <v>0.87443946188340804</v>
+      </c>
+      <c r="F130" s="20">
+        <v>0.26298044504383</v>
+      </c>
+      <c r="G130" s="20">
+        <v>0.40435458786936201</v>
+      </c>
+      <c r="H130" s="20">
+        <v>0.596877869605142</v>
+      </c>
+      <c r="I130" s="20">
+        <v>0.97571616338167499</v>
+      </c>
+      <c r="O130" s="2"/>
+      <c r="P130" s="2"/>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>91</v>
+      </c>
+      <c r="B135" t="s">
+        <v>32</v>
+      </c>
+      <c r="C135" t="s">
+        <v>32</v>
+      </c>
+      <c r="D135" t="s">
+        <v>32</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B136" t="s">
+        <v>0</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1</v>
+      </c>
+      <c r="D136" t="s">
+        <v>2</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>46</v>
+      </c>
+      <c r="B137" s="19">
+        <v>321</v>
+      </c>
+      <c r="C137" s="19">
+        <v>172</v>
+      </c>
+      <c r="D137" s="19">
+        <v>125</v>
+      </c>
+      <c r="E137" s="20">
+        <v>0.71973094170403495</v>
+      </c>
+      <c r="F137" s="20">
+        <v>0.651115618661257</v>
+      </c>
+      <c r="G137" s="20">
+        <v>0.68370607028753905</v>
+      </c>
+      <c r="H137" s="20">
+        <v>0.70487483530961703</v>
+      </c>
+      <c r="I137" s="20">
+        <v>0.93626914891523405</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>47</v>
+      </c>
+      <c r="B138">
+        <v>328</v>
+      </c>
+      <c r="C138">
+        <v>225</v>
+      </c>
+      <c r="D138">
+        <v>118</v>
+      </c>
+      <c r="E138" s="1">
+        <v>0.73542600896860899</v>
+      </c>
+      <c r="F138" s="1">
+        <v>0.59312839059674505</v>
+      </c>
+      <c r="G138" s="2">
+        <v>0.65665665665665596</v>
+      </c>
+      <c r="H138" s="2">
+        <v>0.70175438596491202</v>
+      </c>
+      <c r="I138" s="1">
+        <v>0.93890474692079395</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>48</v>
+      </c>
+      <c r="B139">
+        <v>330</v>
+      </c>
+      <c r="C139">
+        <v>264</v>
+      </c>
+      <c r="D139">
+        <v>116</v>
+      </c>
+      <c r="E139" s="1">
+        <v>0.73991031390134498</v>
+      </c>
+      <c r="F139" s="1">
+        <v>0.55555555555555503</v>
+      </c>
+      <c r="G139" s="1">
+        <v>0.63461538461538403</v>
+      </c>
+      <c r="H139" s="1">
+        <v>0.69386038687972995</v>
+      </c>
+      <c r="I139" s="1">
+        <v>0.93912486551626295</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>49</v>
+      </c>
+      <c r="B140">
+        <v>333</v>
+      </c>
+      <c r="C140">
+        <v>296</v>
+      </c>
+      <c r="D140">
+        <v>113</v>
+      </c>
+      <c r="E140" s="1">
+        <v>0.74663677130044803</v>
+      </c>
+      <c r="F140" s="1">
+        <v>0.52941176470588203</v>
+      </c>
+      <c r="G140" s="1">
+        <v>0.61953488372093002</v>
+      </c>
+      <c r="H140" s="1">
+        <v>0.69001243265644396</v>
+      </c>
+      <c r="I140" s="1">
+        <v>0.93922481229828902</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>88</v>
+      </c>
+      <c r="B141">
+        <v>344</v>
+      </c>
+      <c r="C141">
+        <v>667</v>
+      </c>
+      <c r="D141">
+        <v>102</v>
+      </c>
+      <c r="E141" s="1">
+        <v>0.77130044843049295</v>
+      </c>
+      <c r="F141" s="1">
+        <v>0.34025717111770498</v>
+      </c>
+      <c r="G141" s="1">
+        <v>0.47220315717227102</v>
+      </c>
+      <c r="H141" s="1">
+        <v>0.61538461538461497</v>
+      </c>
+      <c r="I141" s="1">
+        <v>0.94028628020895799</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B142" t="s">
+        <v>33</v>
+      </c>
+      <c r="C142" t="s">
+        <v>33</v>
+      </c>
+      <c r="D142" t="s">
+        <v>33</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B143" t="s">
+        <v>0</v>
+      </c>
+      <c r="C143" t="s">
+        <v>1</v>
+      </c>
+      <c r="D143" t="s">
+        <v>2</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>46</v>
+      </c>
+      <c r="B144" s="19">
+        <v>33303</v>
+      </c>
+      <c r="C144" s="19">
+        <v>2509</v>
+      </c>
+      <c r="D144" s="19">
+        <v>2240</v>
+      </c>
+      <c r="E144" s="20">
+        <v>0.93697774526629696</v>
+      </c>
+      <c r="F144" s="20">
+        <v>0.92993968502178004</v>
+      </c>
+      <c r="G144" s="20">
+        <v>0.93344544881227598</v>
+      </c>
+      <c r="H144" s="20">
+        <v>0.93556162351672001</v>
+      </c>
+      <c r="I144" s="20">
+        <v>0.93626914891523405</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>47</v>
+      </c>
+      <c r="B145">
+        <v>33419</v>
+      </c>
+      <c r="C145">
+        <v>2630</v>
+      </c>
+      <c r="D145">
+        <v>2124</v>
+      </c>
+      <c r="E145" s="1">
+        <v>0.94024139774357796</v>
+      </c>
+      <c r="F145" s="1">
+        <v>0.92704374601237205</v>
+      </c>
+      <c r="G145" s="2">
+        <v>0.93359593250642503</v>
+      </c>
+      <c r="H145" s="2">
+        <v>0.93757189107905303</v>
+      </c>
+      <c r="I145" s="1">
+        <v>0.93890474692079395</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>48</v>
+      </c>
+      <c r="B146">
+        <v>33432</v>
+      </c>
+      <c r="C146">
+        <v>2672</v>
+      </c>
+      <c r="D146">
+        <v>2111</v>
+      </c>
+      <c r="E146" s="1">
+        <v>0.94060715190051403</v>
+      </c>
+      <c r="F146" s="1">
+        <v>0.92599157988034497</v>
+      </c>
+      <c r="G146" s="1">
+        <v>0.93324214551900198</v>
+      </c>
+      <c r="H146" s="1">
+        <v>0.937647243599811</v>
+      </c>
+      <c r="I146" s="1">
+        <v>0.93912486551626295</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>49</v>
+      </c>
+      <c r="B147">
+        <v>33438</v>
+      </c>
+      <c r="C147">
+        <v>2692</v>
+      </c>
+      <c r="D147">
+        <v>2105</v>
+      </c>
+      <c r="E147" s="1">
+        <v>0.94077596151140797</v>
+      </c>
+      <c r="F147" s="1">
+        <v>0.92549128148353099</v>
+      </c>
+      <c r="G147" s="1">
+        <v>0.93307103093215005</v>
+      </c>
+      <c r="H147" s="1">
+        <v>0.93767876972776498</v>
+      </c>
+      <c r="I147" s="1">
+        <v>0.93922481229828902</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>88</v>
+      </c>
+      <c r="B148">
+        <v>33515</v>
+      </c>
+      <c r="C148">
+        <v>3032</v>
+      </c>
+      <c r="D148">
+        <v>2028</v>
+      </c>
+      <c r="E148" s="1">
+        <v>0.94294235151787897</v>
+      </c>
+      <c r="F148" s="1">
+        <v>0.91703833419979697</v>
+      </c>
+      <c r="G148" s="1">
+        <v>0.92980995977250602</v>
+      </c>
+      <c r="H148" s="1">
+        <v>0.937645130064514</v>
+      </c>
+      <c r="I148" s="1">
+        <v>0.94028628020895799</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>113</v>
+      </c>
+      <c r="B153" t="s">
+        <v>92</v>
+      </c>
+      <c r="C153" t="s">
+        <v>93</v>
+      </c>
+      <c r="D153" t="s">
+        <v>94</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>100</v>
+      </c>
+      <c r="B154">
+        <v>318</v>
+      </c>
+      <c r="C154">
+        <v>1378</v>
+      </c>
+      <c r="D154">
+        <v>29</v>
+      </c>
+      <c r="E154" s="1">
+        <v>0.91639999999999999</v>
+      </c>
+      <c r="F154" s="1">
+        <v>0.1875</v>
+      </c>
+      <c r="G154" s="1">
+        <v>0.31130000000000002</v>
+      </c>
+      <c r="H154" s="1">
+        <v>0.51559999999999995</v>
+      </c>
+      <c r="I154" s="1">
+        <v>0.65990000000000004</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>101</v>
+      </c>
+      <c r="B155">
+        <v>69</v>
+      </c>
+      <c r="C155">
+        <v>44</v>
+      </c>
+      <c r="D155">
+        <v>278</v>
+      </c>
+      <c r="E155" s="1">
+        <v>0.1988</v>
+      </c>
+      <c r="F155" s="1">
+        <v>0.61060000000000003</v>
+      </c>
+      <c r="G155" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H155" s="1">
+        <v>0.2298</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>102</v>
+      </c>
+      <c r="B156">
+        <v>232</v>
+      </c>
+      <c r="C156">
+        <v>93</v>
+      </c>
+      <c r="D156">
+        <v>115</v>
+      </c>
+      <c r="E156" s="1">
+        <v>0.66859999999999997</v>
+      </c>
+      <c r="F156" s="1">
+        <v>0.71379999999999999</v>
+      </c>
+      <c r="G156" s="1">
+        <v>0.6905</v>
+      </c>
+      <c r="H156" s="1">
+        <v>0.67720000000000002</v>
+      </c>
+      <c r="I156" s="1">
+        <v>0.67290000000000005</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>103</v>
+      </c>
+      <c r="B157">
+        <v>226</v>
+      </c>
+      <c r="C157">
+        <v>80</v>
+      </c>
+      <c r="D157">
+        <v>121</v>
+      </c>
+      <c r="E157" s="1">
+        <v>0.65129999999999999</v>
+      </c>
+      <c r="F157" s="1">
+        <v>0.73860000000000003</v>
+      </c>
+      <c r="G157" s="1">
+        <v>0.69220000000000004</v>
+      </c>
+      <c r="H157" s="1">
+        <v>0.66710000000000003</v>
+      </c>
+      <c r="I157" s="1">
+        <v>0.65910000000000002</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>104</v>
+      </c>
+      <c r="B158">
+        <v>231</v>
+      </c>
+      <c r="C158">
+        <v>91</v>
+      </c>
+      <c r="D158">
+        <v>116</v>
+      </c>
+      <c r="E158" s="1">
+        <v>0.66569999999999996</v>
+      </c>
+      <c r="F158" s="1">
+        <v>0.71740000000000004</v>
+      </c>
+      <c r="G158" s="1">
+        <v>0.69059999999999999</v>
+      </c>
+      <c r="H158" s="1">
+        <v>0.6754</v>
+      </c>
+      <c r="I158" s="1">
+        <v>0.67049999999999998</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>105</v>
+      </c>
+      <c r="B159">
+        <v>233</v>
+      </c>
+      <c r="C159">
+        <v>100</v>
+      </c>
+      <c r="D159">
+        <v>114</v>
+      </c>
+      <c r="E159" s="1">
+        <v>0.67149999999999999</v>
+      </c>
+      <c r="F159" s="1">
+        <v>0.69969999999999999</v>
+      </c>
+      <c r="G159" s="1">
+        <v>0.68530000000000002</v>
+      </c>
+      <c r="H159" s="1">
+        <v>0.67689999999999995</v>
+      </c>
+      <c r="I159" s="1">
+        <v>0.67420000000000002</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>106</v>
+      </c>
+      <c r="B160">
+        <v>233</v>
+      </c>
+      <c r="C160">
+        <v>265</v>
+      </c>
+      <c r="D160">
+        <v>114</v>
+      </c>
+      <c r="E160" s="1">
+        <v>0.67149999999999999</v>
+      </c>
+      <c r="F160" s="1">
+        <v>0.46789999999999998</v>
+      </c>
+      <c r="G160" s="1">
+        <v>0.55149999999999999</v>
+      </c>
+      <c r="H160" s="1">
+        <v>0.61770000000000003</v>
+      </c>
+      <c r="I160" s="1">
+        <v>0.64349999999999996</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>107</v>
+      </c>
+      <c r="B161">
+        <v>225</v>
+      </c>
+      <c r="C161">
+        <v>78</v>
+      </c>
+      <c r="D161">
+        <v>122</v>
+      </c>
+      <c r="E161" s="1">
+        <v>0.64839999999999998</v>
+      </c>
+      <c r="F161" s="1">
+        <v>0.74260000000000004</v>
+      </c>
+      <c r="G161" s="1">
+        <v>0.69230000000000003</v>
+      </c>
+      <c r="H161" s="1">
+        <v>0.6653</v>
+      </c>
+      <c r="I161" s="1">
+        <v>0.65669999999999995</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>108</v>
+      </c>
+      <c r="B162">
+        <v>232</v>
+      </c>
+      <c r="C162">
+        <v>94</v>
+      </c>
+      <c r="D162">
+        <v>115</v>
+      </c>
+      <c r="E162" s="1">
+        <v>0.66859999999999997</v>
+      </c>
+      <c r="F162" s="1">
+        <v>0.7117</v>
+      </c>
+      <c r="G162" s="1">
+        <v>0.6895</v>
+      </c>
+      <c r="H162" s="1">
+        <v>0.67679999999999996</v>
+      </c>
+      <c r="I162" s="1">
+        <v>0.67269999999999996</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>109</v>
+      </c>
+      <c r="B163">
+        <v>225</v>
+      </c>
+      <c r="C163">
+        <v>82</v>
+      </c>
+      <c r="D163">
+        <v>122</v>
+      </c>
+      <c r="E163" s="1">
+        <v>0.64839999999999998</v>
+      </c>
+      <c r="F163" s="1">
+        <v>0.7329</v>
+      </c>
+      <c r="G163" s="1">
+        <v>0.68810000000000004</v>
+      </c>
+      <c r="H163" s="1">
+        <v>0.66369999999999996</v>
+      </c>
+      <c r="I163" s="1">
+        <v>0.65600000000000003</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>110</v>
+      </c>
+      <c r="B164">
+        <v>225</v>
+      </c>
+      <c r="C164">
+        <v>85</v>
+      </c>
+      <c r="D164">
+        <v>122</v>
+      </c>
+      <c r="E164" s="1">
+        <v>0.64839999999999998</v>
+      </c>
+      <c r="F164" s="1">
+        <v>0.7258</v>
+      </c>
+      <c r="G164" s="1">
+        <v>0.68489999999999995</v>
+      </c>
+      <c r="H164" s="1">
+        <v>0.66249999999999998</v>
+      </c>
+      <c r="I164" s="1">
+        <v>0.65539999999999998</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>111</v>
+      </c>
+      <c r="B165">
+        <v>225</v>
+      </c>
+      <c r="C165">
+        <v>85</v>
+      </c>
+      <c r="D165">
+        <v>122</v>
+      </c>
+      <c r="E165" s="1">
+        <v>0.64839999999999998</v>
+      </c>
+      <c r="F165" s="1">
+        <v>0.7258</v>
+      </c>
+      <c r="G165" s="1">
+        <v>0.68489999999999995</v>
+      </c>
+      <c r="H165" s="1">
+        <v>0.66249999999999998</v>
+      </c>
+      <c r="I165" s="1">
+        <v>0.65539999999999998</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>112</v>
+      </c>
+      <c r="B166">
+        <v>225</v>
+      </c>
+      <c r="C166">
+        <v>81</v>
+      </c>
+      <c r="D166">
+        <v>122</v>
+      </c>
+      <c r="E166" s="1">
+        <v>0.64839999999999998</v>
+      </c>
+      <c r="F166" s="1">
+        <v>0.73529999999999995</v>
+      </c>
+      <c r="G166" s="1">
+        <v>0.68910000000000005</v>
+      </c>
+      <c r="H166" s="1">
+        <v>0.66410000000000002</v>
+      </c>
+      <c r="I166" s="1">
+        <v>0.65620000000000001</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="U2:U1048576">
-    <cfRule type="dataBar" priority="229">
+    <cfRule type="dataBar" priority="277">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6020,7 +8685,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2:T1048576">
-    <cfRule type="dataBar" priority="227">
+    <cfRule type="dataBar" priority="275">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6034,7 +8699,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:T1048576">
-    <cfRule type="dataBar" priority="224">
+    <cfRule type="dataBar" priority="272">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6048,7 +8713,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R1048576">
-    <cfRule type="dataBar" priority="230">
+    <cfRule type="dataBar" priority="278">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6062,7 +8727,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S52 T4:T52 S76:S1048576 S53:T75">
-    <cfRule type="dataBar" priority="228">
+    <cfRule type="dataBar" priority="276">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6076,7 +8741,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V52 W4:W52 V76:V1048576 V53:W75">
-    <cfRule type="dataBar" priority="222">
+    <cfRule type="dataBar" priority="270">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6090,7 +8755,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:W1048576">
-    <cfRule type="dataBar" priority="221">
+    <cfRule type="dataBar" priority="269">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6104,7 +8769,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:W1048576">
-    <cfRule type="dataBar" priority="220">
+    <cfRule type="dataBar" priority="268">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6118,7 +8783,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1">
-    <cfRule type="dataBar" priority="215">
+    <cfRule type="dataBar" priority="263">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6132,7 +8797,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1">
-    <cfRule type="dataBar" priority="214">
+    <cfRule type="dataBar" priority="262">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6146,7 +8811,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1">
-    <cfRule type="dataBar" priority="213">
+    <cfRule type="dataBar" priority="261">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6160,7 +8825,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1">
-    <cfRule type="dataBar" priority="216">
+    <cfRule type="dataBar" priority="264">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6174,7 +8839,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1">
-    <cfRule type="dataBar" priority="212">
+    <cfRule type="dataBar" priority="260">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6188,7 +8853,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1">
-    <cfRule type="dataBar" priority="211">
+    <cfRule type="dataBar" priority="259">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6201,7 +8866,255 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M105:M1048576 M1:M27 M53:M79">
+  <conditionalFormatting sqref="M53:M75">
+    <cfRule type="colorScale" priority="431">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="432">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N53:N75">
+    <cfRule type="colorScale" priority="435">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O53:Q75">
+    <cfRule type="colorScale" priority="437">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G53:I75">
+    <cfRule type="colorScale" priority="439">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:E32">
+    <cfRule type="colorScale" priority="207">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="423">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33:F37">
+    <cfRule type="colorScale" priority="238">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33:F37">
+    <cfRule type="colorScale" priority="237">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M90:M103 M109 M114">
+    <cfRule type="colorScale" priority="216">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F90">
+    <cfRule type="colorScale" priority="218">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M90:M103 M109 M114">
+    <cfRule type="colorScale" priority="219">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="220">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N90:N103 N109 N114">
+    <cfRule type="colorScale" priority="221">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O109:Q109 O90:Q103 O114:Q114">
+    <cfRule type="colorScale" priority="222">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G109:I109 G95:I103 H90:I94 G114:I114">
+    <cfRule type="colorScale" priority="223">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="colorScale" priority="215">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="217">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F109">
+    <cfRule type="colorScale" priority="213">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="214">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F109">
+    <cfRule type="colorScale" priority="212">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F114">
+    <cfRule type="colorScale" priority="211">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F114">
     <cfRule type="colorScale" priority="210">
       <colorScale>
         <cfvo type="min"/>
@@ -6213,40 +9126,54 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M53:M75">
-    <cfRule type="colorScale" priority="383">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="384">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N53:N75">
-    <cfRule type="colorScale" priority="387">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O53:Q75">
-    <cfRule type="colorScale" priority="389">
+  <conditionalFormatting sqref="G90:G94">
+    <cfRule type="colorScale" priority="209">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G90:G94">
+    <cfRule type="colorScale" priority="208">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28:F32">
+    <cfRule type="colorScale" priority="205">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="206">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28:G32">
+    <cfRule type="colorScale" priority="154">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6256,9 +9183,393 @@
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G53:I75">
-    <cfRule type="colorScale" priority="391">
+    <cfRule type="colorScale" priority="204">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33:E37">
+    <cfRule type="colorScale" priority="195">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="196">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38:E42">
+    <cfRule type="colorScale" priority="193">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="194">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43:E47">
+    <cfRule type="colorScale" priority="191">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="192">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48:E52">
+    <cfRule type="colorScale" priority="189">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="190">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48:F52">
+    <cfRule type="colorScale" priority="187">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="188">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43:F47">
+    <cfRule type="colorScale" priority="185">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="186">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38:F42">
+    <cfRule type="colorScale" priority="183">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="184">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M28:M32">
+    <cfRule type="colorScale" priority="175">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="176">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M33:M37">
+    <cfRule type="colorScale" priority="171">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="172">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M38:M42">
+    <cfRule type="colorScale" priority="169">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="170">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M43:M47">
+    <cfRule type="colorScale" priority="167">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="168">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M48:M52">
+    <cfRule type="colorScale" priority="165">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="166">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N48:N52">
+    <cfRule type="colorScale" priority="163">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="164">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N43:N47">
+    <cfRule type="colorScale" priority="161">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="162">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N38:N42">
+    <cfRule type="colorScale" priority="159">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="160">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N33:N37">
+    <cfRule type="colorScale" priority="157">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="158">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N28:N32">
+    <cfRule type="colorScale" priority="155">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="156">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33:G37">
+    <cfRule type="colorScale" priority="152">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6268,9 +9579,19 @@
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G105:G1048576 G53:G79 G2:G23">
-    <cfRule type="colorScale" priority="392">
+    <cfRule type="colorScale" priority="153">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38:G42">
+    <cfRule type="colorScale" priority="150">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6280,9 +9601,19 @@
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H105:H1048576 H2:H23 H53:H79">
-    <cfRule type="colorScale" priority="396">
+    <cfRule type="colorScale" priority="151">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G43:G47">
+    <cfRule type="colorScale" priority="148">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6292,9 +9623,19 @@
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I105:I1048576 I53:I79 I2:I23">
-    <cfRule type="colorScale" priority="400">
+    <cfRule type="colorScale" priority="149">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G48:G52">
+    <cfRule type="colorScale" priority="146">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6304,9 +9645,19 @@
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O105:O1048576 O53:O79 O2:O23">
-    <cfRule type="colorScale" priority="404">
+    <cfRule type="colorScale" priority="147">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48:H52">
+    <cfRule type="colorScale" priority="144">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6316,9 +9667,19 @@
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P105:P1048576 P53:P79 P2:P23">
-    <cfRule type="colorScale" priority="408">
+    <cfRule type="colorScale" priority="145">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43:H47">
+    <cfRule type="colorScale" priority="142">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6328,9 +9689,19 @@
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q105:Q1048576 Q2:Q23 Q53:Q79">
-    <cfRule type="colorScale" priority="412">
+    <cfRule type="colorScale" priority="143">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38:H42">
+    <cfRule type="colorScale" priority="140">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6340,159 +9711,19 @@
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105:E1048576 E53:E79 E2:E23">
-    <cfRule type="colorScale" priority="416">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F105:F1048576 F2:F23 F53:F79">
-    <cfRule type="colorScale" priority="420">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M105:M1048576 M53:M79 M2:M23">
-    <cfRule type="colorScale" priority="424">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N105:N1048576 N2:N23 N53:N79">
-    <cfRule type="colorScale" priority="428">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28:E32">
-    <cfRule type="colorScale" priority="159">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="375">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F33:F37">
-    <cfRule type="colorScale" priority="190">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F33:F37">
-    <cfRule type="colorScale" priority="189">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M89:M104 M80">
-    <cfRule type="colorScale" priority="168">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F90">
-    <cfRule type="colorScale" priority="170">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M89:M104 M80">
-    <cfRule type="colorScale" priority="171">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="172">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N89:N104 N80">
-    <cfRule type="colorScale" priority="173">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O89:Q104 O80:Q80">
-    <cfRule type="colorScale" priority="174">
+    <cfRule type="colorScale" priority="141">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33:H37">
+    <cfRule type="colorScale" priority="138">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6502,9 +9733,19 @@
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G95:I104 H90:I94 G80:I80 G89:I89">
-    <cfRule type="colorScale" priority="175">
+    <cfRule type="colorScale" priority="139">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28:H32">
+    <cfRule type="colorScale" priority="136">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6514,9 +9755,19 @@
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G95:G104">
-    <cfRule type="colorScale" priority="176">
+    <cfRule type="colorScale" priority="137">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28:I32">
+    <cfRule type="colorScale" priority="134">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6526,9 +9777,19 @@
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H95:H104 H91:H93">
-    <cfRule type="colorScale" priority="177">
+    <cfRule type="colorScale" priority="135">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33:I37">
+    <cfRule type="colorScale" priority="132">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6538,9 +9799,19 @@
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I95:I104 I91:I93">
-    <cfRule type="colorScale" priority="178">
+    <cfRule type="colorScale" priority="133">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38:I42">
+    <cfRule type="colorScale" priority="130">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6550,9 +9821,19 @@
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O95:O104 O91:O93">
-    <cfRule type="colorScale" priority="179">
+    <cfRule type="colorScale" priority="131">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43:I47">
+    <cfRule type="colorScale" priority="128">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6562,9 +9843,19 @@
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P95:P104 P91:P93">
-    <cfRule type="colorScale" priority="180">
+    <cfRule type="colorScale" priority="129">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I48:I52">
+    <cfRule type="colorScale" priority="126">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6574,9 +9865,19 @@
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q95:Q104 Q91:Q93">
-    <cfRule type="colorScale" priority="181">
+    <cfRule type="colorScale" priority="127">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P28:P32">
+    <cfRule type="colorScale" priority="124">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6586,180 +9887,194 @@
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95:E104 E91:E93">
-    <cfRule type="colorScale" priority="182">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F95:F104 F91:F93">
-    <cfRule type="colorScale" priority="183">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M95:M104 M91:M93">
-    <cfRule type="colorScale" priority="184">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N95:N104 N91:N93">
-    <cfRule type="colorScale" priority="185">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="colorScale" priority="167">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="169">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F80">
-    <cfRule type="colorScale" priority="165">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="166">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F80">
-    <cfRule type="colorScale" priority="164">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F89">
-    <cfRule type="colorScale" priority="163">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F89">
-    <cfRule type="colorScale" priority="162">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G90:G94">
-    <cfRule type="colorScale" priority="161">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G90:G94">
-    <cfRule type="colorScale" priority="160">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28:F32">
-    <cfRule type="colorScale" priority="157">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="158">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28:G32">
+    <cfRule type="colorScale" priority="125">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P33:P37">
+    <cfRule type="colorScale" priority="122">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="123">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P38:P42">
+    <cfRule type="colorScale" priority="120">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="121">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P43:P47">
+    <cfRule type="colorScale" priority="118">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="119">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P48:P52">
+    <cfRule type="colorScale" priority="116">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="117">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q48:Q52">
+    <cfRule type="colorScale" priority="114">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="115">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q43:Q47">
+    <cfRule type="colorScale" priority="112">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="113">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q38:Q42">
+    <cfRule type="colorScale" priority="110">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="111">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q33:Q37">
+    <cfRule type="colorScale" priority="108">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="109">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q28:Q32">
     <cfRule type="colorScale" priority="106">
       <colorScale>
         <cfvo type="min"/>
@@ -6770,370 +10085,6 @@
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="156">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33:E37">
-    <cfRule type="colorScale" priority="147">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="148">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38:E42">
-    <cfRule type="colorScale" priority="145">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="146">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43:E47">
-    <cfRule type="colorScale" priority="143">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="144">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48:E52">
-    <cfRule type="colorScale" priority="141">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="142">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F48:F52">
-    <cfRule type="colorScale" priority="139">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="140">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43:F47">
-    <cfRule type="colorScale" priority="137">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="138">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38:F42">
-    <cfRule type="colorScale" priority="135">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="136">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M28:M32">
-    <cfRule type="colorScale" priority="127">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="128">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M33:M37">
-    <cfRule type="colorScale" priority="123">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="124">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M38:M42">
-    <cfRule type="colorScale" priority="121">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="122">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M43:M47">
-    <cfRule type="colorScale" priority="119">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="120">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M48:M52">
-    <cfRule type="colorScale" priority="117">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="118">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N48:N52">
-    <cfRule type="colorScale" priority="115">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="116">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N43:N47">
-    <cfRule type="colorScale" priority="113">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="114">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N38:N42">
-    <cfRule type="colorScale" priority="111">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="112">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N33:N37">
-    <cfRule type="colorScale" priority="109">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="110">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N28:N32">
     <cfRule type="colorScale" priority="107">
       <colorScale>
         <cfvo type="min"/>
@@ -7144,18 +10095,8 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="108">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G33:G37">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O28:O32">
     <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="min"/>
@@ -7177,7 +10118,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G38:G42">
+  <conditionalFormatting sqref="O33:O37">
     <cfRule type="colorScale" priority="102">
       <colorScale>
         <cfvo type="min"/>
@@ -7199,7 +10140,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G43:G47">
+  <conditionalFormatting sqref="O38:O42">
     <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="min"/>
@@ -7221,7 +10162,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G48:G52">
+  <conditionalFormatting sqref="O43:O47">
     <cfRule type="colorScale" priority="98">
       <colorScale>
         <cfvo type="min"/>
@@ -7243,7 +10184,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48:H52">
+  <conditionalFormatting sqref="O48:O52">
     <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="min"/>
@@ -7265,8 +10206,144 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43:H47">
-    <cfRule type="colorScale" priority="94">
+  <conditionalFormatting sqref="E110:E113">
+    <cfRule type="colorScale" priority="654">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="655">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110:E113">
+    <cfRule type="colorScale" priority="658">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F110:F113">
+    <cfRule type="colorScale" priority="660">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="661">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F110:F113">
+    <cfRule type="colorScale" priority="664">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M110:M113">
+    <cfRule type="colorScale" priority="666">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="667">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M110:M113">
+    <cfRule type="colorScale" priority="670">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N110:N113">
+    <cfRule type="colorScale" priority="672">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="673">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N110:N113">
+    <cfRule type="colorScale" priority="676">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O110:O113">
+    <cfRule type="colorScale" priority="684">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7276,19 +10353,9 @@
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="95">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H38:H42">
-    <cfRule type="colorScale" priority="92">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P110:P113">
+    <cfRule type="colorScale" priority="688">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7298,19 +10365,9 @@
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="93">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33:H37">
-    <cfRule type="colorScale" priority="90">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q110:Q113">
+    <cfRule type="colorScale" priority="692">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7320,19 +10377,9 @@
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="91">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28:H32">
-    <cfRule type="colorScale" priority="88">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G110:G113">
+    <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7342,19 +10389,9 @@
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="89">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I28:I32">
-    <cfRule type="colorScale" priority="86">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H110:H113">
+    <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7364,19 +10401,9 @@
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="87">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I33:I37">
-    <cfRule type="colorScale" priority="84">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I110:I113">
+    <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7386,19 +10413,21 @@
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="85">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I38:I42">
-    <cfRule type="colorScale" priority="82">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M115:M116 M108 M1:M27 M53:M78 M139:M1048576">
+    <cfRule type="colorScale" priority="707">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O115:O116 O108 O53:O78 O2:O23 O139:O1048576">
+    <cfRule type="colorScale" priority="723">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7408,19 +10437,9 @@
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="83">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I43:I47">
-    <cfRule type="colorScale" priority="80">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P115:P116 P108 P53:P78 P2:P23 P139:P1048576">
+    <cfRule type="colorScale" priority="727">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7430,19 +10449,9 @@
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="81">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I48:I52">
-    <cfRule type="colorScale" priority="78">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q115:Q116 Q108 Q2:Q23 Q53:Q78 Q139:Q1048576">
+    <cfRule type="colorScale" priority="731">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7452,19 +10461,33 @@
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="79">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P28:P32">
-    <cfRule type="colorScale" priority="76">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M115:M116 M108 M53:M78 M2:M23 M139:M1048576">
+    <cfRule type="colorScale" priority="743">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N115:N116 N108 N2:N23 N53:N78 N139:N1048576">
+    <cfRule type="colorScale" priority="747">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G95:G103">
+    <cfRule type="colorScale" priority="764">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7474,19 +10497,9 @@
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="77">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P33:P37">
-    <cfRule type="colorScale" priority="74">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H95:H103 H91:H93">
+    <cfRule type="colorScale" priority="765">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7496,19 +10509,9 @@
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="75">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P38:P42">
-    <cfRule type="colorScale" priority="72">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I95:I103 I91:I93">
+    <cfRule type="colorScale" priority="767">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7518,19 +10521,9 @@
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="73">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P43:P47">
-    <cfRule type="colorScale" priority="70">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O95:O103 O91:O93">
+    <cfRule type="colorScale" priority="769">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7540,19 +10533,9 @@
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="71">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P48:P52">
-    <cfRule type="colorScale" priority="68">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P95:P103 P91:P93">
+    <cfRule type="colorScale" priority="771">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7562,19 +10545,9 @@
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="69">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q48:Q52">
-    <cfRule type="colorScale" priority="66">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q95:Q103 Q91:Q93">
+    <cfRule type="colorScale" priority="773">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7584,19 +10557,101 @@
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="67">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q43:Q47">
-    <cfRule type="colorScale" priority="64">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95:E103 E91:E93">
+    <cfRule type="colorScale" priority="775">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F95:F103 F91:F93">
+    <cfRule type="colorScale" priority="777">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M95:M103 M91:M93">
+    <cfRule type="colorScale" priority="779">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N95:N103 N91:N93">
+    <cfRule type="colorScale" priority="781">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E137:E141 M130:M133">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E137:E141 M130:M133">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F137:F141 N130:N133">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G137:I141 O130:Q133">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7606,19 +10661,21 @@
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="65">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q38:Q42">
-    <cfRule type="colorScale" priority="62">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E142:E143">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G117:G118">
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7628,19 +10685,9 @@
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="63">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q33:Q37">
-    <cfRule type="colorScale" priority="60">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H117:H118">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7650,19 +10697,9 @@
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="61">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q28:Q32">
-    <cfRule type="colorScale" priority="58">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I117:I118">
+    <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7672,19 +10709,9 @@
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="59">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O28:O32">
-    <cfRule type="colorScale" priority="56">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G142:G143">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7694,19 +10721,9 @@
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="57">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O33:O37">
-    <cfRule type="colorScale" priority="54">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H142:H143">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7716,19 +10733,9 @@
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="55">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O38:O42">
-    <cfRule type="colorScale" priority="52">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I142:I143">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7738,19 +10745,57 @@
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O43:O47">
-    <cfRule type="colorScale" priority="50">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117:E118">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F117:F118">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E142:E143">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F142:F143">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G145:G148">
+    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7760,18 +10805,56 @@
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="51">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O48:O52">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G138:G141 O131:O133">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H138:H141 P131:P133">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I138:I141 Q131:Q133">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E138:E141 M131:M133">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F138:F141 N131:N133">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -7779,158 +10862,36 @@
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G145:I148 H144:I144">
+    <cfRule type="colorScale" priority="856">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81:E84">
-    <cfRule type="colorScale" priority="606">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="607">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81:E84">
-    <cfRule type="colorScale" priority="610">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F81:F84">
-    <cfRule type="colorScale" priority="612">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="613">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F81:F84">
-    <cfRule type="colorScale" priority="616">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M81:M84">
-    <cfRule type="colorScale" priority="618">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="619">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M81:M84">
-    <cfRule type="colorScale" priority="622">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N81:N84">
-    <cfRule type="colorScale" priority="624">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="625">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N81:N84">
-    <cfRule type="colorScale" priority="628">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O81:O84">
-    <cfRule type="colorScale" priority="636">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G144">
+    <cfRule type="colorScale" priority="858">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H145:H148">
+    <cfRule type="colorScale" priority="859">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7941,8 +10902,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P81:P84">
-    <cfRule type="colorScale" priority="640">
+  <conditionalFormatting sqref="I145:I148">
+    <cfRule type="colorScale" priority="860">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7953,8 +10914,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q81:Q84">
-    <cfRule type="colorScale" priority="644">
+  <conditionalFormatting sqref="E145:E148">
+    <cfRule type="colorScale" priority="864">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F145:F148">
+    <cfRule type="colorScale" priority="865">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G135:G136">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7965,7 +10950,187 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G81:G84">
+  <conditionalFormatting sqref="H135:H136">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I135:I136">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135:E136">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F135:F136">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G115:G116 G108 G53:G78 G2:G23 G149:G1048576">
+    <cfRule type="colorScale" priority="979">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H115:H116 H108 H2:H23 H53:H78 H149:H1048576">
+    <cfRule type="colorScale" priority="984">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I115:I116 I108 I53:I78 I2:I23 I149:I152 I167:I1048576">
+    <cfRule type="colorScale" priority="989">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115:E116 E108 E53:E78 E2:E23 E149:E1048576">
+    <cfRule type="colorScale" priority="994">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F115:F116 F108 F2:F23 F53:F78 F149:F1048576">
+    <cfRule type="colorScale" priority="999">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E124:E125">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G124:G125">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H124:H125">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I124:I125">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E124:E125">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F124:F125">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H153:H166">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -7977,8 +11142,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H81:H84">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="I153:I166">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7989,8 +11154,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I81:I84">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="G153:G166">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F153:F166">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E153:E166">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
